--- a/data/hotels_by_city/Houston/Houston_shard_445.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_445.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="488">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d645215-Reviews-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-La-Quinta-Inn-Suites-Houston-I-45-North-At-1960.h1633732.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531356981427&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=4532e6e9-3b39-4d3c-8897-c97994deee8f&amp;mctc=9&amp;exp_dp=79.01&amp;exp_ts=1531356982425&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +145,1341 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r594535138-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>645215</t>
+  </si>
+  <si>
+    <t>594535138</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>Gets the job done</t>
+  </si>
+  <si>
+    <t>This La Quinta is not the best location to get to. There is a drive off the service road that is easy to miss though you can cut through the other hotel parking lot if needed. There is another entrance off a street on the back side, but you need to drive around to access it from the frontage.Room was not bad. Breakfast was not worth eating, as are most free hotel breakfasts. Customer service was good, though I tried to get a small meeting room (for only 5 ppl) and could not so we just set up in the lobby and dealt with the noise.I have stayed here for work a couple of times (business account) so I am sure I will be again in the future.I do not like that it is pet friendly. You might have a noisy animal next door.Overall, this La Quinta isn't bad, but I have stayed in better hotels in the area in the past.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Management response:Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>This La Quinta is not the best location to get to. There is a drive off the service road that is easy to miss though you can cut through the other hotel parking lot if needed. There is another entrance off a street on the back side, but you need to drive around to access it from the frontage.Room was not bad. Breakfast was not worth eating, as are most free hotel breakfasts. Customer service was good, though I tried to get a small meeting room (for only 5 ppl) and could not so we just set up in the lobby and dealt with the noise.I have stayed here for work a couple of times (business account) so I am sure I will be again in the future.I do not like that it is pet friendly. You might have a noisy animal next door.Overall, this La Quinta isn't bad, but I have stayed in better hotels in the area in the past.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r593655992-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>593655992</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>the help wasgreat</t>
+  </si>
+  <si>
+    <t>the help was great the rooms were nice jjlh  eyieiiiercbbeiweliwiffqqeirqiureereriireqfiqiufqiufiqeurfquireehewhueiuwehewuieiweeuwiewuewiuewuiewuiewieewiewuuuewewewuiewuiepuiuqpqerpuqerrehrueughrouheurrehouehueqrureqrhrp9urMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Management response:Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>the help was great the rooms were nice jjlh  eyieiiiercbbeiweliwiffqqeirqiureereriireqfiqiufqiufiqeurfquireehewhueiuwehewuieiweeuwiewuewiuewuiewuiewieewiewuuuewewewuiewuiepuiuqpqerpuqerrehrueughrouheurrehouehueqrureqrhrp9urMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r585466413-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585466413</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Not sure if we'll choose this Hotel next time</t>
+  </si>
+  <si>
+    <t>Water in my room and parent's room was either too hot or too cold to bathe.   I had to point out she was charging me $30 more than my online confirmation total, for no reason.  Grateful for the waffles and coffee for breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2018</t>
+  </si>
+  <si>
+    <t>Water in my room and parent's room was either too hot or too cold to bathe.   I had to point out she was charging me $30 more than my online confirmation total, for no reason.  Grateful for the waffles and coffee for breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r575210084-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575210084</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Staff makes up for Wear and tear</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel when I came into town for my daughters birthday( we like to travel as presents).  At some point during my stay, my lock stopped working and they had to come up and manually lock the door. The hotel is showing some wear and tear, and would do well by a complete makeover, but the staff tries to do the best they can with what they have.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel when I came into town for my daughters birthday( we like to travel as presents).  At some point during my stay, my lock stopped working and they had to come up and manually lock the door. The hotel is showing some wear and tear, and would do well by a complete makeover, but the staff tries to do the best they can with what they have.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r574833441-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574833441</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Great job by staff.</t>
+  </si>
+  <si>
+    <t>The room i booked wasnt available.  They called me before we got there and fixed it.  Breakfast was varied and multiple choices.  Pet friendly.  Quiet although easy access to I-45 and 59.  Will recommend and stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>The room i booked wasnt available.  They called me before we got there and fixed it.  Breakfast was varied and multiple choices.  Pet friendly.  Quiet although easy access to I-45 and 59.  Will recommend and stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r570471624-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570471624</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Will not stay again</t>
+  </si>
+  <si>
+    <t>This property is general run-down. Many things didn't work properly. Some of the staff was helpful but some were in-interested. Plumbing didn't work properly and there was no hot water one morning. The door safety latch wouldn't engage, was replaced and still wouldn't engage. Key card didn't work and had to be replaced.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>This property is general run-down. Many things didn't work properly. Some of the staff was helpful but some were in-interested. Plumbing didn't work properly and there was no hot water one morning. The door safety latch wouldn't engage, was replaced and still wouldn't engage. Key card didn't work and had to be replaced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r529714586-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529714586</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Not staying there again!</t>
+  </si>
+  <si>
+    <t>Tv in Room 228 wasnt working! Wifi was not working at all! Ac was not cooling enough. Though Maria did everything that was on her side to help out. Though in the morning while checking the General Manager seemed to be having a good day. Will think again on choosing that particular hotel. Cigar smoke everywhere, we got terrible second hand smoke. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Mike B, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Tv in Room 228 wasnt working! Wifi was not working at all! Ac was not cooling enough. Though Maria did everything that was on her side to help out. Though in the morning while checking the General Manager seemed to be having a good day. Will think again on choosing that particular hotel. Cigar smoke everywhere, we got terrible second hand smoke. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r528991909-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>528991909</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Very disappointed</t>
+  </si>
+  <si>
+    <t>Hotel room had trash pile on bed table. Beds appeared made but sheets smelled. Beds were comfortable. Soap trash in shower. Shower had broken part. Either scalding or cold water. Manager observed and said it was a broken cartridge. Entire hotel needs renovating. No charge for room. Decent full breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Hotel room had trash pile on bed table. Beds appeared made but sheets smelled. Beds were comfortable. Soap trash in shower. Shower had broken part. Either scalding or cold water. Manager observed and said it was a broken cartridge. Entire hotel needs renovating. No charge for room. Decent full breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r523978041-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>523978041</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Bed bugs</t>
+  </si>
+  <si>
+    <t>309 completely bitten up with bed bugs. This is not acceptable at all. This will not be taken lightly. I had a huge hospital bill because of a allergic reaction to the bites. Then was harassed by the security guard outside about parking. Free WiFi free breakfast and free bed bugs..NO THANKSMoreShow less</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded September 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2017</t>
+  </si>
+  <si>
+    <t>309 completely bitten up with bed bugs. This is not acceptable at all. This will not be taken lightly. I had a huge hospital bill because of a allergic reaction to the bites. Then was harassed by the security guard outside about parking. Free WiFi free breakfast and free bed bugs..NO THANKSMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r493491466-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493491466</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Excellent employee</t>
+  </si>
+  <si>
+    <t>I recently visited this location and have to put into light the excellent employee behind the front desk. She was very professional and friendly. She did her job with a smile and help me out with my internet connection. I didn't catch her name but I would like to say thank you to her. More hotels can use a gal like her at their front desk!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Mike B, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2017</t>
+  </si>
+  <si>
+    <t>I recently visited this location and have to put into light the excellent employee behind the front desk. She was very professional and friendly. She did her job with a smile and help me out with my internet connection. I didn't catch her name but I would like to say thank you to her. More hotels can use a gal like her at their front desk!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r489764610-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489764610</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>A great place to stay</t>
+  </si>
+  <si>
+    <t>The manager was kind and gracious and we got accommodations at a last minute. The rooms were clean and housekeeping was very nice with keeping everything neat. Great locks and doors and I slept great. There was a pool on the facility. They even had a night security person keeping an eye on everything. I will gladly come back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike B, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2017</t>
+  </si>
+  <si>
+    <t>The manager was kind and gracious and we got accommodations at a last minute. The rooms were clean and housekeeping was very nice with keeping everything neat. Great locks and doors and I slept great. There was a pool on the facility. They even had a night security person keeping an eye on everything. I will gladly come back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r487859302-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487859302</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>My stay at LaQuinta</t>
+  </si>
+  <si>
+    <t>Great service, great location, very friendly staff need to fix pool area, outside area is falling apart  water in room 222 is too hot  be more pleasant serving breakfast, a smile could help.  let guests eat past 9am.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike B, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Great service, great location, very friendly staff need to fix pool area, outside area is falling apart  water in room 222 is too hot  be more pleasant serving breakfast, a smile could help.  let guests eat past 9am.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r475720460-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475720460</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>La Quinta</t>
+  </si>
+  <si>
+    <t>Nice Place, would recommend.  On business trip, would stay again.  Staff was helpful from start of reservation to when I checked out.  Close to where I had to go for business.  Would recommend to family and friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Mike B, Owner at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Nice Place, would recommend.  On business trip, would stay again.  Staff was helpful from start of reservation to when I checked out.  Close to where I had to go for business.  Would recommend to family and friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r469766507-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469766507</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Overall B+</t>
+  </si>
+  <si>
+    <t>Although the internet was sketchy, the breakfast was very good and hotel very clean.  Access to restaurants, fuel, and freeway very convenient as well as hotel staff friendly.  I will stay again on my next visit to this area of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Mike B, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded March 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2017</t>
+  </si>
+  <si>
+    <t>Although the internet was sketchy, the breakfast was very good and hotel very clean.  Access to restaurants, fuel, and freeway very convenient as well as hotel staff friendly.  I will stay again on my next visit to this area of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r469295080-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469295080</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Nice stay and a great value.</t>
+  </si>
+  <si>
+    <t>Check in and out was quick and easy.  The room was clean and beds were comfortable.  The only thing was AC kept cutting off and on, but the temperature stayed comfortable.  My family is used to it staying cold the WHOLE night, so we noticed.  The breakfast was good and a nice variety.  The housekeeping was polite and helpful.  I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike B, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Check in and out was quick and easy.  The room was clean and beds were comfortable.  The only thing was AC kept cutting off and on, but the temperature stayed comfortable.  My family is used to it staying cold the WHOLE night, so we noticed.  The breakfast was good and a nice variety.  The housekeeping was polite and helpful.  I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r460579560-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460579560</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Always stay at this hotel</t>
+  </si>
+  <si>
+    <t>Staff is very friendly, general manager is terrific.  Have rented their conference room for meetings previously.  I work with a charity organization and come to Houston several times a year.  If I do not stay at this hotel, I stay with another person with the organization.  I have once stayed at this hotel almost a month and they were very accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Mike B, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded February 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2017</t>
+  </si>
+  <si>
+    <t>Staff is very friendly, general manager is terrific.  Have rented their conference room for meetings previously.  I work with a charity organization and come to Houston several times a year.  If I do not stay at this hotel, I stay with another person with the organization.  I have once stayed at this hotel almost a month and they were very accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r455101575-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455101575</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Rude manager</t>
+  </si>
+  <si>
+    <t>We checked in at night and the night so called manager was very rude and not helpful what so ever and gave us the wrong room. We had to go back downstairs to correct that. Not happy at all definitely not staying here againMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Mike B, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded January 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2017</t>
+  </si>
+  <si>
+    <t>We checked in at night and the night so called manager was very rude and not helpful what so ever and gave us the wrong room. We had to go back downstairs to correct that. Not happy at all definitely not staying here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r454111233-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454111233</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike B, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r446521217-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446521217</t>
+  </si>
+  <si>
+    <t>12/24/2016</t>
+  </si>
+  <si>
+    <t>home away from home</t>
+  </si>
+  <si>
+    <t>excellent the staff was excellent the total place was clean and very well maintained.i would go out of my way to stay here if and when i get in the houston,texas area again.the owner operator was very friendly and accomadating.the place is in a very good location.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Patricia K, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded January 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2017</t>
+  </si>
+  <si>
+    <t>excellent the staff was excellent the total place was clean and very well maintained.i would go out of my way to stay here if and when i get in the houston,texas area again.the owner operator was very friendly and accomadating.the place is in a very good location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r446208508-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446208508</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Favorite hotel in Houston</t>
+  </si>
+  <si>
+    <t>The hotel is the midway point of my monthly trip to the main office and it is a great place to stop and rest for the night. All of the staff is friendly, helpful and understanding. We will continue to stay for as long as I make my trips to Texas. I travel all over the country and LaQuinta is the only place I will stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Patricia K, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is the midway point of my monthly trip to the main office and it is a great place to stop and rest for the night. All of the staff is friendly, helpful and understanding. We will continue to stay for as long as I make my trips to Texas. I travel all over the country and LaQuinta is the only place I will stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r440892906-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440892906</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel - Wonderful &amp; Professional Staff</t>
+  </si>
+  <si>
+    <t>We stayed here on 10/11/16, arrived late and did not get the type of room we reserved.  We are gold members for LaQuinta returns reward program.We needed to stay on 10/12/16. When we arrived Emma listened to what experience we had the night before. She was very apologetic and made a note for the manager,Donna,  but as it turned out Donna was on site. We did get the correct room type this time and to make up for the mess the night before, Donna discounted our stay for 10/12.This is a very nice hotel with great amenitites.  We will stay there again. Thanks so much, Emma and Donna-you are awesome!JoanMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Patricia K, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here on 10/11/16, arrived late and did not get the type of room we reserved.  We are gold members for LaQuinta returns reward program.We needed to stay on 10/12/16. When we arrived Emma listened to what experience we had the night before. She was very apologetic and made a note for the manager,Donna,  but as it turned out Donna was on site. We did get the correct room type this time and to make up for the mess the night before, Donna discounted our stay for 10/12.This is a very nice hotel with great amenitites.  We will stay there again. Thanks so much, Emma and Donna-you are awesome!JoanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r436291132-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436291132</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Great staff could smell better</t>
+  </si>
+  <si>
+    <t>The entire staff here is great. Very friendly, efficient and trustworthy. The hallways and workout room do not smell very well. This hotel is not in a great area and the staff does a great job of keeping the hotel as nice as possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Patricia K, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded November 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2016</t>
+  </si>
+  <si>
+    <t>The entire staff here is great. Very friendly, efficient and trustworthy. The hallways and workout room do not smell very well. This hotel is not in a great area and the staff does a great job of keeping the hotel as nice as possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r436291087-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436291087</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>For the rate charged, this was a good place to stay while in Houston. I was a little disappointed with a "musty" odor in the room but that seemed a little unavoidable due to humid conditions in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>For the rate charged, this was a good place to stay while in Houston. I was a little disappointed with a "musty" odor in the room but that seemed a little unavoidable due to humid conditions in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r430675842-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430675842</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Always pleasantly surprised by La Quinta</t>
+  </si>
+  <si>
+    <t>I recently stayed for the first time at this La Quinta property.  The main motivation was that I was in danger of losing some points.  It is not that I don't like to stay at La Quinta Inns - far from it - but my travels just haven't worked out that La Quinta was viable for a while.I had some business up in the Woodlands, and this La Quinta was in a good location for my business activities.  The drive to Double Cross Oil (eXXon) was easy in the morning.  There are a lot of restaurants of all descriptions, from fast food to fine dining, within a 15 minute drive.  The hotel is very well maintained and the rooms are conducive to getting work done or relaxing.  The facility is very clean.  The staff I met were helpful.  I felt very safe in the area.  The breakfast is a bit meager, but I really didn't expect much more, given the good rate that I received.  It was not epicurean, but it was more than adequate.  I'll definitely stay here again if business takes me this way.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Patricia K, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded October 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2016</t>
+  </si>
+  <si>
+    <t>I recently stayed for the first time at this La Quinta property.  The main motivation was that I was in danger of losing some points.  It is not that I don't like to stay at La Quinta Inns - far from it - but my travels just haven't worked out that La Quinta was viable for a while.I had some business up in the Woodlands, and this La Quinta was in a good location for my business activities.  The drive to Double Cross Oil (eXXon) was easy in the morning.  There are a lot of restaurants of all descriptions, from fast food to fine dining, within a 15 minute drive.  The hotel is very well maintained and the rooms are conducive to getting work done or relaxing.  The facility is very clean.  The staff I met were helpful.  I felt very safe in the area.  The breakfast is a bit meager, but I really didn't expect much more, given the good rate that I received.  It was not epicurean, but it was more than adequate.  I'll definitely stay here again if business takes me this way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r424070711-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>424070711</t>
+  </si>
+  <si>
+    <t>10/01/2016</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Awesome all around. All the front desk staff was wonderful. Friendly. We felt like old friends. Room was perfect with an extra large flat screen TV.  Great laundry facilities, clean and bright. Hot breakfast with all the trimmings. Immaculate property. We will be back. I wouldn't stay anywhere else in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Patricia K, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2016</t>
+  </si>
+  <si>
+    <t>Awesome all around. All the front desk staff was wonderful. Friendly. We felt like old friends. Room was perfect with an extra large flat screen TV.  Great laundry facilities, clean and bright. Hot breakfast with all the trimmings. Immaculate property. We will be back. I wouldn't stay anywhere else in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r425541967-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425541967</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Rave review to all staff at this La Quinta</t>
+  </si>
+  <si>
+    <t>My husband and I checked in for 4 days while I had surgery in Houston and we stayed on an extra night...the manager and staff were the most helpful I've had so far..seriously..excellent customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Patricia K, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I checked in for 4 days while I had surgery in Houston and we stayed on an extra night...the manager and staff were the most helpful I've had so far..seriously..excellent customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r412505778-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412505778</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>LQ6093GM, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r367022740-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>367022740</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Go Elsewhere</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel last night with my family. Other than the friendly night front desk employee(she offered to switch one of our rooms to another floor due to the smoke smell), I don't have much else positive to report. Our room was supposed to be non smoking, but it smelled of smoke, and there was not a "NON SMOKING" sign outside the door as there were outside other rooms. Our smoke detector needed a new battery because it kept beeping, and the chair in our room had a large tear and chunk out of it. My husband called the front desk 4 times, but no one ever answered the phone so we told them the next time we went down. While we were out they did spray some air freshener or something in the room and replace the smoke detector batteries. We were supposed to get Elite member perks such as a snack, water and late check out. When staying at other La Quintas this has always been given upon check in, but yesterday it seemed to be an issue. After I asked, we were reluctantly given 3 bottled waters, 3 individual size bags of pretzels and, after checking with a manager first, told it was okay to have the late check out on the 3 rooms we had. Forewarning though, even if you have a late 1 p.m. check out your room keys turn off at noon. We...Stayed at this hotel last night with my family. Other than the friendly night front desk employee(she offered to switch one of our rooms to another floor due to the smoke smell), I don't have much else positive to report. Our room was supposed to be non smoking, but it smelled of smoke, and there was not a "NON SMOKING" sign outside the door as there were outside other rooms. Our smoke detector needed a new battery because it kept beeping, and the chair in our room had a large tear and chunk out of it. My husband called the front desk 4 times, but no one ever answered the phone so we told them the next time we went down. While we were out they did spray some air freshener or something in the room and replace the smoke detector batteries. We were supposed to get Elite member perks such as a snack, water and late check out. When staying at other La Quintas this has always been given upon check in, but yesterday it seemed to be an issue. After I asked, we were reluctantly given 3 bottled waters, 3 individual size bags of pretzels and, after checking with a manager first, told it was okay to have the late check out on the 3 rooms we had. Forewarning though, even if you have a late 1 p.m. check out your room keys turn off at noon. We had to get cleaning crew to open ours. The breakfast buffet was the worst I've ever had. There was 1 apple in the fruit basket, there were 4 yogurts, but after taking one out of the tub of ice and seeing an unidentifiable rust colored puddle form under it (it was blueberry) I put it back, 1 sausage, a few scrambled eggs and a few french toast sticks (I think that's what they were) in a warmer, a waffle maker, but no butter or margarine, and only decaf coffee. There was no one attending the breakfast buffet as there usually is at most hotels we stay at, and every single time I went to the front desk, there was no one there. I had to yell for someone every time.  When I went during the breakfast buffet to ask if there was regular coffee, I was told, "It's coming."  There was only one vanilla  creamer, and a few hazelnuts. There were a few packets of instant oatmeal, but no butter or other toppings. I couldn't ask for stuff because no one was around. Finally, I understand Houston was hit with some heavy rains and flooding a week ago and the weather cannot be helped, but it seemed as if no one bothered to right the upside down, thrown around pool furniture as there were chairs and tables in bushes and scattered about. The hot tub was cold. When I found someone to ask about the trick to making the hot tub hot, I was told, "I think it's broken and we just haven't put a sign up yet, But I'll ask the manager if the heat's turned on." When I went back outside the heat was turned on, but I think it takes a while to warm the whole tub as it never really got hot before we left. I was not at all sad to leave. My advice to you is read reviews. I usually only write them for the exceptional and the worst. I felt compelled to share my experience at this La Quinta. Spend your money on a nicer hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>LQ6093GM, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded May 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2016</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel last night with my family. Other than the friendly night front desk employee(she offered to switch one of our rooms to another floor due to the smoke smell), I don't have much else positive to report. Our room was supposed to be non smoking, but it smelled of smoke, and there was not a "NON SMOKING" sign outside the door as there were outside other rooms. Our smoke detector needed a new battery because it kept beeping, and the chair in our room had a large tear and chunk out of it. My husband called the front desk 4 times, but no one ever answered the phone so we told them the next time we went down. While we were out they did spray some air freshener or something in the room and replace the smoke detector batteries. We were supposed to get Elite member perks such as a snack, water and late check out. When staying at other La Quintas this has always been given upon check in, but yesterday it seemed to be an issue. After I asked, we were reluctantly given 3 bottled waters, 3 individual size bags of pretzels and, after checking with a manager first, told it was okay to have the late check out on the 3 rooms we had. Forewarning though, even if you have a late 1 p.m. check out your room keys turn off at noon. We...Stayed at this hotel last night with my family. Other than the friendly night front desk employee(she offered to switch one of our rooms to another floor due to the smoke smell), I don't have much else positive to report. Our room was supposed to be non smoking, but it smelled of smoke, and there was not a "NON SMOKING" sign outside the door as there were outside other rooms. Our smoke detector needed a new battery because it kept beeping, and the chair in our room had a large tear and chunk out of it. My husband called the front desk 4 times, but no one ever answered the phone so we told them the next time we went down. While we were out they did spray some air freshener or something in the room and replace the smoke detector batteries. We were supposed to get Elite member perks such as a snack, water and late check out. When staying at other La Quintas this has always been given upon check in, but yesterday it seemed to be an issue. After I asked, we were reluctantly given 3 bottled waters, 3 individual size bags of pretzels and, after checking with a manager first, told it was okay to have the late check out on the 3 rooms we had. Forewarning though, even if you have a late 1 p.m. check out your room keys turn off at noon. We had to get cleaning crew to open ours. The breakfast buffet was the worst I've ever had. There was 1 apple in the fruit basket, there were 4 yogurts, but after taking one out of the tub of ice and seeing an unidentifiable rust colored puddle form under it (it was blueberry) I put it back, 1 sausage, a few scrambled eggs and a few french toast sticks (I think that's what they were) in a warmer, a waffle maker, but no butter or margarine, and only decaf coffee. There was no one attending the breakfast buffet as there usually is at most hotels we stay at, and every single time I went to the front desk, there was no one there. I had to yell for someone every time.  When I went during the breakfast buffet to ask if there was regular coffee, I was told, "It's coming."  There was only one vanilla  creamer, and a few hazelnuts. There were a few packets of instant oatmeal, but no butter or other toppings. I couldn't ask for stuff because no one was around. Finally, I understand Houston was hit with some heavy rains and flooding a week ago and the weather cannot be helped, but it seemed as if no one bothered to right the upside down, thrown around pool furniture as there were chairs and tables in bushes and scattered about. The hot tub was cold. When I found someone to ask about the trick to making the hot tub hot, I was told, "I think it's broken and we just haven't put a sign up yet, But I'll ask the manager if the heat's turned on." When I went back outside the heat was turned on, but I think it takes a while to warm the whole tub as it never really got hot before we left. I was not at all sad to leave. My advice to you is read reviews. I usually only write them for the exceptional and the worst. I felt compelled to share my experience at this La Quinta. Spend your money on a nicer hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r365399110-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365399110</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Pet Friendly</t>
+  </si>
+  <si>
+    <t>I was very satisfied with the cleanliness of the hotel in general. The staff was so friendly and helpful. I was pleased to see the rooms were set up for extended stays.I will be returning the next time we stay in Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ6093GM, Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>I was very satisfied with the cleanliness of the hotel in general. The staff was so friendly and helpful. I was pleased to see the rooms were set up for extended stays.I will be returning the next time we stay in Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r364111511-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364111511</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>LQ6093GM, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r349428937-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349428937</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Don't do it unless you're desperate</t>
+  </si>
+  <si>
+    <t>Staff was friendly enough, but the constant smell of weed up and down the halls in a "non-smoking" hotel was more than I could stand. Quite a few homeless wander in and out, drug dealers and ladies of the evening utilize this location as their home base. The gas station in front is a staging area for ambulances and wreckers because there's always a wreck, robbery, or emergency in this area. I tried hard to overlook these things, but when you can't sleep at night, it makes for a REALLY TOUGH DAY AT WORK.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>LQ6093GM, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Staff was friendly enough, but the constant smell of weed up and down the halls in a "non-smoking" hotel was more than I could stand. Quite a few homeless wander in and out, drug dealers and ladies of the evening utilize this location as their home base. The gas station in front is a staging area for ambulances and wreckers because there's always a wreck, robbery, or emergency in this area. I tried hard to overlook these things, but when you can't sleep at night, it makes for a REALLY TOUGH DAY AT WORK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r349052410-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349052410</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Recommended</t>
+  </si>
+  <si>
+    <t>The hotel staff were very friendly, responsive and helpful.  Room was nice size, clean and had upgraded furniture and bedding. Breakfast was fine; would have liked more fruit options.  Efficient check  in. Good location just off of I-45. Recommend and would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>LQ6093GM, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded February 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2016</t>
+  </si>
+  <si>
+    <t>The hotel staff were very friendly, responsive and helpful.  Room was nice size, clean and had upgraded furniture and bedding. Breakfast was fine; would have liked more fruit options.  Efficient check  in. Good location just off of I-45. Recommend and would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r348088564-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348088564</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>DON'T STAY IN THIS AREA !</t>
+  </si>
+  <si>
+    <t>Although this La Quinta is comparable to other better La Quinta's, this specific area is home to homeless people and vagrants.  Although the property has video cameras, there is no secrity to prevent a vehicle breakin.  Also, other hotels/motels in this area are priced in the $29 - $39 range, versus $100 for this LQ.MoreShow less</t>
+  </si>
+  <si>
+    <t>Although this La Quinta is comparable to other better La Quinta's, this specific area is home to homeless people and vagrants.  Although the property has video cameras, there is no secrity to prevent a vehicle breakin.  Also, other hotels/motels in this area are priced in the $29 - $39 range, versus $100 for this LQ.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r331548125-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331548125</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>Love La Quinta</t>
+  </si>
+  <si>
+    <t>My husband and I are loyal La Quinta customers and we are never disappointed. They are pet friendly with no extra charge, rooms are always nice and clean, staff are friendly and accommodating. Not the cheapest hotel in town, but definitely worth the price!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>LQ6093GM, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded December 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I are loyal La Quinta customers and we are never disappointed. They are pet friendly with no extra charge, rooms are always nice and clean, staff are friendly and accommodating. Not the cheapest hotel in town, but definitely worth the price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r326418584-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326418584</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>OK Stay, BUT.......</t>
+  </si>
+  <si>
+    <t>Shower did not function properly the last 2 days of our stay, and it was not fixed when we left.  Room was very comfortable, but construction started right outside our room at 7am in the morning.......that shot sleeping in.  Breakfast was good and there was a variety of items, but exactly the same items were served every day--we were told it would vary every day when we made the reservations. Location was very convenient for our visit.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r322108590-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322108590</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>LQ6093GM, Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r301715411-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301715411</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Most Excellent Stay</t>
+  </si>
+  <si>
+    <t>The staff (Donna and Mike) were fabulous!  Our accommodations were terrific.  Although this facility is 35 min. away from our relatives, we will stay here again.   We were able to visit relatives as well as classmates from 1973.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r284626113-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284626113</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>2nd chance</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay a 2nd time. Last time was several years ago and this time it was just like the first.  Quiet and clean. Breakfast was great too. Staff was exceptional. We will be staying next time we are in the area.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r275450906-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275450906</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Leisure stay</t>
+  </si>
+  <si>
+    <t>Great hotel staff, and excellent location for our purpose.  The rooms are kept up very clean. The manager has great customer ethics.  we will continue staying at this hotel for the next coming months.  Would recommend staying at this hotel.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r260658999-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260658999</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel staff</t>
+  </si>
+  <si>
+    <t>The hotel staff was very kind and courteous. They recommended the best route to take to my dog's opthlamologist's office and showed concern for his well being.  It made a stressful time less stressful! The hotel was well located but far enough from the highway to be quiet. The breakfast was convenient as well.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r249668067-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249668067</t>
+  </si>
+  <si>
+    <t>01/16/2015</t>
+  </si>
+  <si>
+    <t>Rude Personell</t>
+  </si>
+  <si>
+    <t>My wife was asked to vacate our room at 12:10 pm , even though we had a late checkout arranged. The staff told my wife that they needed the room because the staff wanted to go home early, and hung the phone up on her.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r249378196-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249378196</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r238567808-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238567808</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Trustworthy Staff</t>
+  </si>
+  <si>
+    <t>This was an adequate hotel for a last minute trip. We only stopped for the night, so we could get up and keep driving. In my rush to get on the road the next morning, I left an envelope on the dresser with all of my cash I needed to pay for my trip. We were over an hour down the road when I realized I had left it. I immediately called the hotel, knowing it was a waste of time. To my surprise the lady at the desk said she would run up there right away and check. I called back about 20 minutes later, and sure enough she found it and said she would have it for me at the desk. When I returned to the hotel, I was pleasantly surprise to find all of it still in the envelope. I was very lucky that they had such honest staff working there.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>This was an adequate hotel for a last minute trip. We only stopped for the night, so we could get up and keep driving. In my rush to get on the road the next morning, I left an envelope on the dresser with all of my cash I needed to pay for my trip. We were over an hour down the road when I realized I had left it. I immediately called the hotel, knowing it was a waste of time. To my surprise the lady at the desk said she would run up there right away and check. I called back about 20 minutes later, and sure enough she found it and said she would have it for me at the desk. When I returned to the hotel, I was pleasantly surprise to find all of it still in the envelope. I was very lucky that they had such honest staff working there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r232134853-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232134853</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>Bed Bugs</t>
+  </si>
+  <si>
+    <t>We came to Houston for a wake, and we were to attend a funeral in the morning. With most places booked or out of our price range, we used a booking agency and settled on this La Quinta. What we got was a smoking room when we had booked a non-smoking (my little brother is asthmatic so, this was especially problematic), and the first room we were given had BUGS in the pillows, two different types. From my understanding, they were bed bugs. It was disgusting. After speaking with the front desk attendant, (who was actually quite friendly) we were able to get another room. This room also had bugs in the sheets. When we called to request a refund so that we could leave and go to a different hotel, we were told only the manager could do that the following morning. So, if we left, we'd risk losing our money. We slept in chairs against the wall. I have called the manager multiple times, and he has yet to give us a refund. This hotel managed to make a somber trip to Houston immeasurably worse. Please, save your money and go anywhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>We came to Houston for a wake, and we were to attend a funeral in the morning. With most places booked or out of our price range, we used a booking agency and settled on this La Quinta. What we got was a smoking room when we had booked a non-smoking (my little brother is asthmatic so, this was especially problematic), and the first room we were given had BUGS in the pillows, two different types. From my understanding, they were bed bugs. It was disgusting. After speaking with the front desk attendant, (who was actually quite friendly) we were able to get another room. This room also had bugs in the sheets. When we called to request a refund so that we could leave and go to a different hotel, we were told only the manager could do that the following morning. So, if we left, we'd risk losing our money. We slept in chairs against the wall. I have called the manager multiple times, and he has yet to give us a refund. This hotel managed to make a somber trip to Houston immeasurably worse. Please, save your money and go anywhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r231734939-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231734939</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel with plenty of nearby restaurants.</t>
+  </si>
+  <si>
+    <t>I stay here often as I have business very near this hotel  Being located on FM1960 near I-45 makes it convenient when coming from IAH also.  The hotel has always appeared clean and neat both inside and out.  The rooms are fairly large with a great working area which allows me plenty of room to spread out.  The staff is always friendly and responds well to any issues.  I never notice any noise and I usually sleep really well.  The exercise room has nice equipment but is somewhat small and would be nice if they enlarged it.  The breakfast is a hot breakfast but I find the food a little too prepared and doesn't really appeal to me.  I usually eat somewhere else anyway so this is not a major consideration of where I stay.  I have looked at other hotels in the area but the price for what you do get here is good.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I stay here often as I have business very near this hotel  Being located on FM1960 near I-45 makes it convenient when coming from IAH also.  The hotel has always appeared clean and neat both inside and out.  The rooms are fairly large with a great working area which allows me plenty of room to spread out.  The staff is always friendly and responds well to any issues.  I never notice any noise and I usually sleep really well.  The exercise room has nice equipment but is somewhat small and would be nice if they enlarged it.  The breakfast is a hot breakfast but I find the food a little too prepared and doesn't really appeal to me.  I usually eat somewhere else anyway so this is not a major consideration of where I stay.  I have looked at other hotels in the area but the price for what you do get here is good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r217179869-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217179869</t>
+  </si>
+  <si>
+    <t>07/23/2014</t>
+  </si>
+  <si>
+    <t>Crime, Unpleasant furniture</t>
+  </si>
+  <si>
+    <t>This place was surrounded by criminal activity. The staff was not professional. The room was dirty and old. I will not stay at this hotel again. The price paid was robbery compared to the product received.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r215635569-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215635569</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>Tv for conservatives only!</t>
+  </si>
+  <si>
+    <t>TV has fox news, but not MSNBC.  You can't see Cobert Report or John Stuart.  Bias is clear.  I could not find channels and programs I was looking for.  Room is satisfactory.  Location is a long drive from downtown with construction in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r209034240-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209034240</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Pd for Queen Double/Bad Part of Town</t>
+  </si>
+  <si>
+    <t>Pd for Queen Double non-smoking - sent us to a smoking room.  We were told no other queens available.  Sent us to King with a single pull-out couch for 4 people!!  We ended up sleeping 3 in king bed, 1 adult male on pull-out single.  Really bad night of sleep!! We were then told early the next morning there was a queen available, and they did not know why we were not put there.  Irritating!  Bad part of town, shady characters hanging around gas station right in front of hotel all day.  Scary!</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r200663760-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200663760</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>LaQuinta Houston FM1960@I-45</t>
+  </si>
+  <si>
+    <t>This is one of our favorite hotels when we go to Houston. So we just keep coming back!! We llke the convenience of the location for restaurants, close to the LDS Houston temple, etc.  The hotel is very clean and the breakfasts are great for having to be somewhere early and being able to  still get something good to  eat free of charge.  The staff is friendly and the service is great.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r199863980-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199863980</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>A few problems.</t>
+  </si>
+  <si>
+    <t>Shower chair broken--couldn't be fixed and they didn't have a replacement.  Towel bar came off wall (already loose).  Ran out of toilet paper twice--once in the middle of the night.  However, the staff is very nice and try to be helpful.  Also, the laundry facilities were in good working order.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r192283292-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192283292</t>
+  </si>
+  <si>
+    <t>01/27/2014</t>
+  </si>
+  <si>
+    <t>Good Value/Clean Room</t>
+  </si>
+  <si>
+    <t>Considering the area and lack of clean, affordable hotel rooms, we were actually impressed with the service, cleanliness, and safety found during our stay this past Saturday night. We visited a local club, and didn't want to take the long ride home, so we took a chance and are glad we did.  We will return for sure.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r182802805-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182802805</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>Great Hotel ! Made reservations well in advance, got a good rate and everything went smoothly. Clean, comfortable and a great breakfast too. If we are in the area again we will definitely stay again. You will not be disappointed!</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r182246645-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182246645</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Hotel stay</t>
+  </si>
+  <si>
+    <t>My mother and I were staying at this hotel because our home caught on fire.  We were allowed to view the rooms and after seeing them, we told the insurance company this is where we want to stay.  The hotel is clean and neat. The staff is very friendly and is a very enjoyable stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r176247595-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176247595</t>
+  </si>
+  <si>
+    <t>09/07/2013</t>
+  </si>
+  <si>
+    <t>standard la quinta, not bad, not the best</t>
+  </si>
+  <si>
+    <t>Your typical la quinta.  Staff was very friendly. clean hotel.  The gas station near hotel slightly not a family friendly after dark (took kids w/ business), but hotel was and felt safe.a little stingy with the pool towels, if you can can it a towel, but all LQs are like that in terms of towel size for the pool.  they are like glorified hand towels personally.I would stay here again.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r150983402-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150983402</t>
+  </si>
+  <si>
+    <t>01/29/2013</t>
+  </si>
+  <si>
+    <t>Beyond nice staff</t>
+  </si>
+  <si>
+    <t>Originally booked a handicapped 2-bed room, for 2 adults.  Had planned on adding 1 adult and 2 kids to that room for the 2nd night (for just a few hours of sleep).  Turned out the room area was not suitably large enough (physically or mentally) for 5, so I got a 2nd room last minute.  I was a bit shocked to hear that the 2nd room would be almost $20 more than my first room.  I was told that rates go up the more booked the hotel is.. guess that is way of the world.  The front desk lady was more than nice though.. she moved around some folks who had not yet arrived, to help get my family closer to their grandparents.  So that worked out... just hate to pay ~$200 for the two rooms.. seems a bit much for the area.  The hotel is extremely clean, safe, etc... It is also pet friendly.  Had a bit of trouble with the wifi... I couldn't get any of the three possible connections to connect for around 30 minutes.  My folks stay here often, and always have a good experience. So they are repeat customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Originally booked a handicapped 2-bed room, for 2 adults.  Had planned on adding 1 adult and 2 kids to that room for the 2nd night (for just a few hours of sleep).  Turned out the room area was not suitably large enough (physically or mentally) for 5, so I got a 2nd room last minute.  I was a bit shocked to hear that the 2nd room would be almost $20 more than my first room.  I was told that rates go up the more booked the hotel is.. guess that is way of the world.  The front desk lady was more than nice though.. she moved around some folks who had not yet arrived, to help get my family closer to their grandparents.  So that worked out... just hate to pay ~$200 for the two rooms.. seems a bit much for the area.  The hotel is extremely clean, safe, etc... It is also pet friendly.  Had a bit of trouble with the wifi... I couldn't get any of the three possible connections to connect for around 30 minutes.  My folks stay here often, and always have a good experience. So they are repeat customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r147759537-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147759537</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r146249452-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146249452</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r129099094-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129099094</t>
+  </si>
+  <si>
+    <t>04/30/2012</t>
+  </si>
+  <si>
+    <t>ALWAYS AWESOME!!</t>
+  </si>
+  <si>
+    <t>I've been staying at this La Quinta location for several years now and they are always consistant at maintaining high standards for the quality and cleanliness of their rooms. The staff is fantastic under the leadership of Mike. If you are in the area - STAY HERE!!</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r122850084-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>122850084</t>
+  </si>
+  <si>
+    <t>01/09/2012</t>
+  </si>
+  <si>
+    <t>Excellent maid service!</t>
+  </si>
+  <si>
+    <t>Very friendly staff, clean room, comfy bed...I have no complaints. All in all a good value plus it's located near 45 and in close proximity to stores and restaurants. Surrounding neighborhood isn't the best, but I definitely felt safe. I would stay here again.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r122097424-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>122097424</t>
+  </si>
+  <si>
+    <t>12/25/2011</t>
+  </si>
+  <si>
+    <t>the best la quinta in houston</t>
+  </si>
+  <si>
+    <t>I am very impressed with this hotel. Staff was very nice. Rooms and lobby was cleaned to perfection. Delicious breakfast with many options to choose from. Beds must have been brand new, because I slept like a baby. I will most DEFINITELY be returning back to this La Quinta when I come to Houston to visit family. Hats off to the staff at this location and general manager. This establisment is very well orgainzed and managed. I will be referring people here. Thank you so very much for your generosity. Your dedication and hard work is well recongnized.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r33654099-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>33654099</t>
+  </si>
+  <si>
+    <t>07/01/2009</t>
+  </si>
+  <si>
+    <t>Poor customer service- FOLLOW UP</t>
+  </si>
+  <si>
+    <t>This post is a follow-up to my original review.  LQ management did come back and offer me a Free Night's Stay coupon for the inconvenience incurred as a result of not having any water.  While it took a complaint and negative reviews to get their attention I do appreciate them responding relatively quickly (within 1week) and making things right.  As stated in my review the issue is more to do with lack of authority with employees when mgm't isn't around than anything else.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>stanchere, Assistant General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded July 16, 2009</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2009</t>
+  </si>
+  <si>
+    <t>This post is a follow-up to my original review.  LQ management did come back and offer me a Free Night's Stay coupon for the inconvenience incurred as a result of not having any water.  While it took a complaint and negative reviews to get their attention I do appreciate them responding relatively quickly (within 1week) and making things right.  As stated in my review the issue is more to do with lack of authority with employees when mgm't isn't around than anything else.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1873,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1905,4186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>132</v>
+      </c>
+      <c r="X11" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>136</v>
+      </c>
+      <c r="J12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>148</v>
+      </c>
+      <c r="X13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>174</v>
+      </c>
+      <c r="X16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>182</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>183</v>
+      </c>
+      <c r="X17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>191</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>199</v>
+      </c>
+      <c r="X19" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>208</v>
+      </c>
+      <c r="X20" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s">
+        <v>215</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>216</v>
+      </c>
+      <c r="X21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>224</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>225</v>
+      </c>
+      <c r="X22" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>234</v>
+      </c>
+      <c r="X23" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K24" t="s">
+        <v>240</v>
+      </c>
+      <c r="L24" t="s">
+        <v>241</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>233</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>248</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>249</v>
+      </c>
+      <c r="X25" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>253</v>
+      </c>
+      <c r="J26" t="s">
+        <v>254</v>
+      </c>
+      <c r="K26" t="s">
+        <v>255</v>
+      </c>
+      <c r="L26" t="s">
+        <v>256</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>257</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>258</v>
+      </c>
+      <c r="X26" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" t="s">
+        <v>263</v>
+      </c>
+      <c r="K27" t="s">
+        <v>264</v>
+      </c>
+      <c r="L27" t="s">
+        <v>265</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>257</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>266</v>
+      </c>
+      <c r="X27" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s">
+        <v>198</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>272</v>
+      </c>
+      <c r="O28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>273</v>
+      </c>
+      <c r="X28" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>275</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>276</v>
+      </c>
+      <c r="J29" t="s">
+        <v>277</v>
+      </c>
+      <c r="K29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L29" t="s">
+        <v>279</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>280</v>
+      </c>
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>281</v>
+      </c>
+      <c r="X29" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>285</v>
+      </c>
+      <c r="J30" t="s">
+        <v>286</v>
+      </c>
+      <c r="K30" t="s">
+        <v>287</v>
+      </c>
+      <c r="L30" t="s">
+        <v>288</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>280</v>
+      </c>
+      <c r="O30" t="s">
+        <v>97</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>289</v>
+      </c>
+      <c r="X30" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>292</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>293</v>
+      </c>
+      <c r="J31" t="s">
+        <v>294</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s">
+        <v>198</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>280</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>295</v>
+      </c>
+      <c r="X31" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J32" t="s">
+        <v>298</v>
+      </c>
+      <c r="K32" t="s">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s">
+        <v>300</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>301</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>302</v>
+      </c>
+      <c r="X32" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>305</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>306</v>
+      </c>
+      <c r="J33" t="s">
+        <v>307</v>
+      </c>
+      <c r="K33" t="s">
+        <v>308</v>
+      </c>
+      <c r="L33" t="s">
+        <v>309</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>310</v>
+      </c>
+      <c r="O33" t="s">
+        <v>97</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>311</v>
+      </c>
+      <c r="X33" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>315</v>
+      </c>
+      <c r="J34" t="s">
+        <v>316</v>
+      </c>
+      <c r="K34" t="s">
+        <v>317</v>
+      </c>
+      <c r="L34" t="s">
+        <v>318</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>310</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>311</v>
+      </c>
+      <c r="X34" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>321</v>
+      </c>
+      <c r="J35" t="s">
+        <v>322</v>
+      </c>
+      <c r="K35" t="s">
+        <v>323</v>
+      </c>
+      <c r="L35" t="s">
+        <v>324</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>325</v>
+      </c>
+      <c r="O35" t="s">
+        <v>115</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>326</v>
+      </c>
+      <c r="X35" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>329</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>330</v>
+      </c>
+      <c r="J36" t="s">
+        <v>331</v>
+      </c>
+      <c r="K36" t="s">
+        <v>332</v>
+      </c>
+      <c r="L36" t="s">
+        <v>333</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>334</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>336</v>
+      </c>
+      <c r="J37" t="s">
+        <v>337</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s">
+        <v>198</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>338</v>
+      </c>
+      <c r="O37" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>339</v>
+      </c>
+      <c r="X37" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>342</v>
+      </c>
+      <c r="J38" t="s">
+        <v>343</v>
+      </c>
+      <c r="K38" t="s">
+        <v>344</v>
+      </c>
+      <c r="L38" t="s">
+        <v>345</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>346</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>347</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>348</v>
+      </c>
+      <c r="J39" t="s">
+        <v>349</v>
+      </c>
+      <c r="K39" t="s">
+        <v>350</v>
+      </c>
+      <c r="L39" t="s">
+        <v>351</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>352</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>353</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>354</v>
+      </c>
+      <c r="J40" t="s">
+        <v>355</v>
+      </c>
+      <c r="K40" t="s">
+        <v>356</v>
+      </c>
+      <c r="L40" t="s">
+        <v>357</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>358</v>
+      </c>
+      <c r="O40" t="s">
+        <v>97</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>359</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>360</v>
+      </c>
+      <c r="J41" t="s">
+        <v>361</v>
+      </c>
+      <c r="K41" t="s">
+        <v>362</v>
+      </c>
+      <c r="L41" t="s">
+        <v>363</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>364</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>365</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>366</v>
+      </c>
+      <c r="J42" t="s">
+        <v>367</v>
+      </c>
+      <c r="K42" t="s">
+        <v>368</v>
+      </c>
+      <c r="L42" t="s">
+        <v>369</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>370</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>371</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>372</v>
+      </c>
+      <c r="J43" t="s">
+        <v>373</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>370</v>
+      </c>
+      <c r="O43" t="s">
+        <v>97</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>374</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>375</v>
+      </c>
+      <c r="J44" t="s">
+        <v>376</v>
+      </c>
+      <c r="K44" t="s">
+        <v>377</v>
+      </c>
+      <c r="L44" t="s">
+        <v>378</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>379</v>
+      </c>
+      <c r="O44" t="s">
+        <v>97</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>381</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>382</v>
+      </c>
+      <c r="J45" t="s">
+        <v>383</v>
+      </c>
+      <c r="K45" t="s">
+        <v>384</v>
+      </c>
+      <c r="L45" t="s">
+        <v>385</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>386</v>
+      </c>
+      <c r="O45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>388</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>389</v>
+      </c>
+      <c r="J46" t="s">
+        <v>390</v>
+      </c>
+      <c r="K46" t="s">
+        <v>391</v>
+      </c>
+      <c r="L46" t="s">
+        <v>392</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>393</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>395</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>396</v>
+      </c>
+      <c r="J47" t="s">
+        <v>397</v>
+      </c>
+      <c r="K47" t="s">
+        <v>398</v>
+      </c>
+      <c r="L47" t="s">
+        <v>399</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>400</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>401</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>402</v>
+      </c>
+      <c r="J48" t="s">
+        <v>403</v>
+      </c>
+      <c r="K48" t="s">
+        <v>404</v>
+      </c>
+      <c r="L48" t="s">
+        <v>405</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>400</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>406</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>407</v>
+      </c>
+      <c r="J49" t="s">
+        <v>408</v>
+      </c>
+      <c r="K49" t="s">
+        <v>409</v>
+      </c>
+      <c r="L49" t="s">
+        <v>410</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>411</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>412</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>413</v>
+      </c>
+      <c r="J50" t="s">
+        <v>414</v>
+      </c>
+      <c r="K50" t="s">
+        <v>415</v>
+      </c>
+      <c r="L50" t="s">
+        <v>416</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>417</v>
+      </c>
+      <c r="O50" t="s">
+        <v>97</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>418</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>419</v>
+      </c>
+      <c r="J51" t="s">
+        <v>420</v>
+      </c>
+      <c r="K51" t="s">
+        <v>421</v>
+      </c>
+      <c r="L51" t="s">
+        <v>422</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>417</v>
+      </c>
+      <c r="O51" t="s">
+        <v>97</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>423</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>424</v>
+      </c>
+      <c r="J52" t="s">
+        <v>425</v>
+      </c>
+      <c r="K52" t="s">
+        <v>426</v>
+      </c>
+      <c r="L52" t="s">
+        <v>427</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>428</v>
+      </c>
+      <c r="O52" t="s">
+        <v>97</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>429</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>430</v>
+      </c>
+      <c r="J53" t="s">
+        <v>431</v>
+      </c>
+      <c r="K53" t="s">
+        <v>432</v>
+      </c>
+      <c r="L53" t="s">
+        <v>433</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>434</v>
+      </c>
+      <c r="O53" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>435</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>436</v>
+      </c>
+      <c r="J54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K54" t="s">
+        <v>438</v>
+      </c>
+      <c r="L54" t="s">
+        <v>439</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>434</v>
+      </c>
+      <c r="O54" t="s">
+        <v>71</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>440</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>441</v>
+      </c>
+      <c r="J55" t="s">
+        <v>442</v>
+      </c>
+      <c r="K55" t="s">
+        <v>443</v>
+      </c>
+      <c r="L55" t="s">
+        <v>444</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>446</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>447</v>
+      </c>
+      <c r="J56" t="s">
+        <v>448</v>
+      </c>
+      <c r="K56" t="s">
+        <v>449</v>
+      </c>
+      <c r="L56" t="s">
+        <v>450</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>451</v>
+      </c>
+      <c r="O56" t="s">
+        <v>71</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>453</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>454</v>
+      </c>
+      <c r="J57" t="s">
+        <v>455</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s">
+        <v>198</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>456</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>458</v>
+      </c>
+      <c r="J58" t="s">
+        <v>459</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>460</v>
+      </c>
+      <c r="O58" t="s">
+        <v>115</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>461</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>462</v>
+      </c>
+      <c r="J59" t="s">
+        <v>463</v>
+      </c>
+      <c r="K59" t="s">
+        <v>464</v>
+      </c>
+      <c r="L59" t="s">
+        <v>465</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>466</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>467</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>468</v>
+      </c>
+      <c r="J60" t="s">
+        <v>469</v>
+      </c>
+      <c r="K60" t="s">
+        <v>470</v>
+      </c>
+      <c r="L60" t="s">
+        <v>471</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>472</v>
+      </c>
+      <c r="O60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>473</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>474</v>
+      </c>
+      <c r="J61" t="s">
+        <v>475</v>
+      </c>
+      <c r="K61" t="s">
+        <v>476</v>
+      </c>
+      <c r="L61" t="s">
+        <v>477</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>478</v>
+      </c>
+      <c r="O61" t="s">
+        <v>97</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>479</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>480</v>
+      </c>
+      <c r="J62" t="s">
+        <v>481</v>
+      </c>
+      <c r="K62" t="s">
+        <v>482</v>
+      </c>
+      <c r="L62" t="s">
+        <v>483</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>484</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>485</v>
+      </c>
+      <c r="X62" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_445.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_445.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="773">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,102 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r606863310-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>645215</t>
+  </si>
+  <si>
+    <t>606863310</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>Upside down key card</t>
+  </si>
+  <si>
+    <t>Key cards are weird, they work upside down which is confusing having to remember to turn it over. and no toilet paper, who runs out of toilet paper?  but otherwise a great stay.  Dogs appreciate being able to come with us.  MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Management response:Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Key cards are weird, they work upside down which is confusing having to remember to turn it over. and no toilet paper, who runs out of toilet paper?  but otherwise a great stay.  Dogs appreciate being able to come with us.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r602283402-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>602283402</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Good safe place to stay in the area</t>
+  </si>
+  <si>
+    <t>Great staff and safe grounds in a less than desirable area. Could easily tell that previous guest(s) have smoked in the room - despite the no smoking policy. Hard to police and enforce considering the area and type of people staying there. Comfortable and quite acceptable for a short stay. Good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Management response:Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Great staff and safe grounds in a less than desirable area. Could easily tell that previous guest(s) have smoked in the room - despite the no smoking policy. Hard to police and enforce considering the area and type of people staying there. Comfortable and quite acceptable for a short stay. Good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r598133694-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>598133694</t>
+  </si>
+  <si>
+    <t>07/21/2018</t>
+  </si>
+  <si>
+    <t>Quality of this La Quinta was the worst.   The manager was no where to be found to help fix the problems.</t>
+  </si>
+  <si>
+    <t>The locks were broken on the pool the keypads the AC was broken in the hallway the we were giving the wrong room and had to move at midnight when asked if I could get a separate room for just for the night I was told I had to pay for it. It was their mistake and it could have been taken care of differently than it was not at allMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
+  </si>
+  <si>
+    <t>The locks were broken on the pool the keypads the AC was broken in the hallway the we were giving the wrong room and had to move at midnight when asked if I could get a separate room for just for the night I was told I had to pay for it. It was their mistake and it could have been taken care of differently than it was not at allMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r594535138-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>645215</t>
-  </si>
-  <si>
     <t>594535138</t>
   </si>
   <si>
@@ -174,15 +258,6 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Management response:Responded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
-  </si>
-  <si>
     <t>This La Quinta is not the best location to get to. There is a drive off the service road that is easy to miss though you can cut through the other hotel parking lot if needed. There is another entrance off a street on the back side, but you need to drive around to access it from the frontage.Room was not bad. Breakfast was not worth eating, as are most free hotel breakfasts. Customer service was good, though I tried to get a small meeting room (for only 5 ppl) and could not so we just set up in the lobby and dealt with the noise.I have stayed here for work a couple of times (business account) so I am sure I will be again in the future.I do not like that it is pet friendly. You might have a noisy animal next door.Overall, this La Quinta isn't bad, but I have stayed in better hotels in the area in the past.More</t>
   </si>
   <si>
@@ -201,16 +276,13 @@
     <t>the help was great the rooms were nice jjlh  eyieiiiercbbeiweliwiffqqeirqiureereriireqfiqiufqiufiqeurfquireehewhueiuwehewuieiweeuwiewuewiuewuiewuiewieewiewuuuewewewuiewuiepuiuqpqerpuqerrehrueughrouheurrehouehueqrureqrhrp9urMoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Management response:Responded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>Management response:Responded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
   </si>
   <si>
     <t>the help was great the rooms were nice jjlh  eyieiiiercbbeiweliwiffqqeirqiureereriireqfiqiufqiufiqeurfquireehewhueiuwehewuieiweeuwiewuewiuewuiewuiewieewiewuuuewewewuiewuiepuiuqpqerpuqerrehrueughrouheurrehouehueqrureqrhrp9urMore</t>
@@ -231,9 +303,6 @@
     <t>Water in my room and parent's room was either too hot or too cold to bathe.   I had to point out she was charging me $30 more than my online confirmation total, for no reason.  Grateful for the waffles and coffee for breakfast.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Management response:Responded June 6, 2018</t>
   </si>
   <si>
@@ -243,6 +312,54 @@
     <t>Water in my room and parent's room was either too hot or too cold to bathe.   I had to point out she was charging me $30 more than my online confirmation total, for no reason.  Grateful for the waffles and coffee for breakfast.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r577686137-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577686137</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r576974381-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576974381</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>Very nice accommodations and better than average breakfast. The bed was very comfortable. The room was a nice size. I prefer hotels with indoor corridors. It also had a decent workout room. Shower was decent but shower head is not movable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Very nice accommodations and better than average breakfast. The bed was very comfortable. The room was a nice size. I prefer hotels with indoor corridors. It also had a decent workout room. Shower was decent but shower head is not movable.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r575210084-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -285,9 +402,6 @@
     <t>The room i booked wasnt available.  They called me before we got there and fixed it.  Breakfast was varied and multiple choices.  Pet friendly.  Quiet although easy access to I-45 and 59.  Will recommend and stay again.MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t>The room i booked wasnt available.  They called me before we got there and fixed it.  Breakfast was varied and multiple choices.  Pet friendly.  Quiet although easy access to I-45 and 59.  Will recommend and stay again.More</t>
   </si>
   <si>
@@ -321,6 +435,54 @@
     <t>This property is general run-down. Many things didn't work properly. Some of the staff was helpful but some were in-interested. Plumbing didn't work properly and there was no hot water one morning. The door safety latch wouldn't engage, was replaced and still wouldn't engage. Key card didn't work and had to be replaced.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r568112064-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568112064</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Kinda run down... Not worth the $110 price</t>
+  </si>
+  <si>
+    <t>I checked into this hotel because it accepted pets and I had some work on my home done that made me leave for 24 hours. When I made my reservation it was for an early check-in. They had no record of this. They did have one room that was clean and empty but at a higher price than my reservation. This is kind of a bait and switch. The room needed badly updating...the lampshade was warped and cracked, the chair was unusable. The front desk person was hardly ever there. On a good note, the bathroom was clean. Skip the breakfast and go to Waffle House across the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>I checked into this hotel because it accepted pets and I had some work on my home done that made me leave for 24 hours. When I made my reservation it was for an early check-in. They had no record of this. They did have one room that was clean and empty but at a higher price than my reservation. This is kind of a bait and switch. The room needed badly updating...the lampshade was warped and cracked, the chair was unusable. The front desk person was hardly ever there. On a good note, the bathroom was clean. Skip the breakfast and go to Waffle House across the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r566863455-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566863455</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>BEST STAY EVER</t>
+  </si>
+  <si>
+    <t>This hotel has come a long way from what I read on past reviews. The new management team here goes above and beyond when it comes to guest services and I will gladly come to stay again!! Breakfast was just hotel Breakfast and pretty good with biscuits and gravy. And Ursula did a wonderful job taking care of anything I needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2018</t>
+  </si>
+  <si>
+    <t>This hotel has come a long way from what I read on past reviews. The new management team here goes above and beyond when it comes to guest services and I will gladly come to stay again!! Breakfast was just hotel Breakfast and pretty good with biscuits and gravy. And Ursula did a wonderful job taking care of anything I needed.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r529714586-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -396,6 +558,54 @@
     <t>309 completely bitten up with bed bugs. This is not acceptable at all. This will not be taken lightly. I had a huge hospital bill because of a allergic reaction to the bites. Then was harassed by the security guard outside about parking. Free WiFi free breakfast and free bed bugs..NO THANKSMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r514623517-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514623517</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>Filthy</t>
+  </si>
+  <si>
+    <t>Rooms were filthy and had bad odor. Had coffee pot but no coffee. Green water beside window of our room infest with trash and mosquito's. Pool was closed and filthy water. Couldn't sit in breakfast area because staff had too many family members eating there for free without staying in a room. Some family members of staff were staying in rooms on second floor. Disgusted. Will never be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Mike B, Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Rooms were filthy and had bad odor. Had coffee pot but no coffee. Green water beside window of our room infest with trash and mosquito's. Pool was closed and filthy water. Couldn't sit in breakfast area because staff had too many family members eating there for free without staying in a room. Some family members of staff were staying in rooms on second floor. Disgusted. Will never be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r514158652-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514158652</t>
+  </si>
+  <si>
+    <t>No swimming today</t>
+  </si>
+  <si>
+    <t>My wife and I left San Francisco and it was 60 degrees outside when we got to Houston it was 97 degrees and when we checked in the first thing we saw was a sign that said the pool is closed I ask if that was for a day or two and was told the pool had been closed for the last 3 months I think the people should've been told the pool was out of order so they could have made other arrangements if needed MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike B, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded August 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I left San Francisco and it was 60 degrees outside when we got to Houston it was 97 degrees and when we checked in the first thing we saw was a sign that said the pool is closed I ask if that was for a day or two and was told the pool had been closed for the last 3 months I think the people should've been told the pool was out of order so they could have made other arrangements if needed More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r493491466-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -471,6 +681,57 @@
     <t>Great service, great location, very friendly staff need to fix pool area, outside area is falling apart  water in room 222 is too hot  be more pleasant serving breakfast, a smile could help.  let guests eat past 9am.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r480347222-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480347222</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Empty booze tole under mattress</t>
+  </si>
+  <si>
+    <t>Just about as bad as America's Best Value Inns.  Towels were stained and I don't think they had been changed There was an empty Mogen David bottle under the mattress and the desk clerk says housekeeping isn't his job so he doesn't know how it got there and wasn't about to go get it.  Hate this pace!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Just about as bad as America's Best Value Inns.  Towels were stained and I don't think they had been changed There was an empty Mogen David bottle under the mattress and the desk clerk says housekeeping isn't his job so he doesn't know how it got there and wasn't about to go get it.  Hate this pace!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r479379743-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479379743</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Great hotel, great value for the price. Area was fine. Plenty of nearby restaurants and easy highway access. Rooms were clean. Breakfast was as expected. Friendly front desk staff. Love that they are pet friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike B, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel, great value for the price. Area was fine. Plenty of nearby restaurants and easy highway access. Rooms were clean. Breakfast was as expected. Friendly front desk staff. Love that they are pet friendly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r475720460-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -486,9 +747,6 @@
     <t>Nice Place, would recommend.  On business trip, would stay again.  Staff was helpful from start of reservation to when I checked out.  Close to where I had to go for business.  Would recommend to family and friends.MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>Mike B, Owner at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded April 16, 2017</t>
   </si>
   <si>
@@ -549,6 +807,51 @@
     <t>Check in and out was quick and easy.  The room was clean and beds were comfortable.  The only thing was AC kept cutting off and on, but the temperature stayed comfortable.  My family is used to it staying cold the WHOLE night, so we noticed.  The breakfast was good and a nice variety.  The housekeeping was polite and helpful.  I would stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r464005393-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464005393</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>clean and enjoyed the stay. will stay again  Room was niec and clean. Quiet.  Breakfast ok.  Staff was friendly.      Did not stay long.  Just in for a dr. appointment  and  then left. But enjoyed the stay and will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Mike B, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>clean and enjoyed the stay. will stay again  Room was niec and clean. Quiet.  Breakfast ok.  Staff was friendly.      Did not stay long.  Just in for a dr. appointment  and  then left. But enjoyed the stay and will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r464004909-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464004909</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>I stayed during the middle of the week. The room was clean. The front desk staff was very friendly. The breakfast was good with a lot of variety of food. The room was cool. The location is okay. I like that I can bring my pet. That is the main reason I stay at La Quinta Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed during the middle of the week. The room was clean. The front desk staff was very friendly. The breakfast was good with a lot of variety of food. The room was cool. The location is okay. I like that I can bring my pet. That is the main reason I stay at La Quinta Inn.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r460579560-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -564,9 +867,6 @@
     <t>Staff is very friendly, general manager is terrific.  Have rented their conference room for meetings previously.  I work with a charity organization and come to Houston several times a year.  If I do not stay at this hotel, I stay with another person with the organization.  I have once stayed at this hotel almost a month and they were very accommodating.MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t>Mike B, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded February 18, 2017</t>
   </si>
   <si>
@@ -612,16 +912,52 @@
     <t>01/22/2017</t>
   </si>
   <si>
-    <t>MoreShow less</t>
-  </si>
-  <si>
     <t>Mike B, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded January 25, 2017</t>
   </si>
   <si>
     <t>Responded January 25, 2017</t>
   </si>
   <si>
-    <t>More</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r453512487-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453512487</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel/shady area</t>
+  </si>
+  <si>
+    <t>Great Hotel, especially the breakfast options.  The staff was very helpful and friendly.  Not too fond of the area, though.  Don't leave anything valuable in your vehicle.  It was also a little tricky to get to if you don't have a GPS or map.  It sits back from the freeway and you have to know where to turn to get to it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike B, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Great Hotel, especially the breakfast options.  The staff was very helpful and friendly.  Not too fond of the area, though.  Don't leave anything valuable in your vehicle.  It was also a little tricky to get to if you don't have a GPS or map.  It sits back from the freeway and you have to know where to turn to get to it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r447501189-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447501189</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Patricia K, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded December 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r446521217-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
@@ -639,9 +975,6 @@
     <t>excellent the staff was excellent the total place was clean and very well maintained.i would go out of my way to stay here if and when i get in the houston,texas area again.the owner operator was very friendly and accomadating.the place is in a very good location.MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t>Patricia K, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded January 2, 2017</t>
   </si>
   <si>
@@ -702,6 +1035,51 @@
     <t>We stayed here on 10/11/16, arrived late and did not get the type of room we reserved.  We are gold members for LaQuinta returns reward program.We needed to stay on 10/12/16. When we arrived Emma listened to what experience we had the night before. She was very apologetic and made a note for the manager,Donna,  but as it turned out Donna was on site. We did get the correct room type this time and to make up for the mess the night before, Donna discounted our stay for 10/12.This is a very nice hotel with great amenitites.  We will stay there again. Thanks so much, Emma and Donna-you are awesome!JoanMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r438218217-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438218217</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>great experience</t>
+  </si>
+  <si>
+    <t>Donna was working the front desk and greeted us with enthusiasm, making us feel welcomed from the getgo.  Our room was one of the King Suites which was very nice, comfortable and clean.  There were 4 adults and a 3yr old so we had plenty of room to spread out.  Each room had a large flat screened tv. One of the rooms had a microwave and fridge.  The bathroom was large enough for at least 2 of us to get ready at the same time without stepping on each other!  The hotel is right off the interstate and near shopping and restaurantsMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Donna was working the front desk and greeted us with enthusiasm, making us feel welcomed from the getgo.  Our room was one of the King Suites which was very nice, comfortable and clean.  There were 4 adults and a 3yr old so we had plenty of room to spread out.  Each room had a large flat screened tv. One of the rooms had a microwave and fridge.  The bathroom was large enough for at least 2 of us to get ready at the same time without stepping on each other!  The hotel is right off the interstate and near shopping and restaurantsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r437390758-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437390758</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>STAY AT THE HOTEL</t>
+  </si>
+  <si>
+    <t>This hotel is a good value if you want to stay in some where near Houston. Pros: lots of good restaurants and shopping centers near by and walking distance. Hotel has a pool and small gym.  Breakfast is good but, personally I was disappointed because I like oatmeal all they had was grits. Cons is the location where the hotel is  near heavy cross traffic and the parking lot is small. In addition, the wifi internet is weak. but other than that it is a worth the price you pay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Patricia K, Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded November 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is a good value if you want to stay in some where near Houston. Pros: lots of good restaurants and shopping centers near by and walking distance. Hotel has a pool and small gym.  Breakfast is good but, personally I was disappointed because I like oatmeal all they had was grits. Cons is the location where the hotel is  near heavy cross traffic and the parking lot is small. In addition, the wifi internet is weak. but other than that it is a worth the price you pay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r436291132-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -717,9 +1095,6 @@
     <t>The entire staff here is great. Very friendly, efficient and trustworthy. The hallways and workout room do not smell very well. This hotel is not in a great area and the staff does a great job of keeping the hotel as nice as possible.MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>Patricia K, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded November 11, 2016</t>
   </si>
   <si>
@@ -774,6 +1149,54 @@
     <t>I recently stayed for the first time at this La Quinta property.  The main motivation was that I was in danger of losing some points.  It is not that I don't like to stay at La Quinta Inns - far from it - but my travels just haven't worked out that La Quinta was viable for a while.I had some business up in the Woodlands, and this La Quinta was in a good location for my business activities.  The drive to Double Cross Oil (eXXon) was easy in the morning.  There are a lot of restaurants of all descriptions, from fast food to fine dining, within a 15 minute drive.  The hotel is very well maintained and the rooms are conducive to getting work done or relaxing.  The facility is very clean.  The staff I met were helpful.  I felt very safe in the area.  The breakfast is a bit meager, but I really didn't expect much more, given the good rate that I received.  It was not epicurean, but it was more than adequate.  I'll definitely stay here again if business takes me this way.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r430293409-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430293409</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Easy to find hotel on I-45 North to Houston</t>
+  </si>
+  <si>
+    <t>Best value for what you pay and what you get. Hotel is conveniently located close to the Hardy toll road and takes me to the area of the IAH airport in 15 to 20 min depending on traffic. Worst around 9 am, but easy around 8 am or earlier.MoreShow less</t>
+  </si>
+  <si>
+    <t>Patricia K, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded October 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2016</t>
+  </si>
+  <si>
+    <t>Best value for what you pay and what you get. Hotel is conveniently located close to the Hardy toll road and takes me to the area of the IAH airport in 15 to 20 min depending on traffic. Worst around 9 am, but easy around 8 am or earlier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r427261091-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427261091</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Roaches in room/loud outside rooms</t>
+  </si>
+  <si>
+    <t>There where roaches crawling in the room on the night stand by the bed. Called front desk and asked for roach spray or another room. They never called back giving them the benefit of the doubt to attend to the costumers issues. NOTHING! NO call no showing up at the room to see if they could help. Poor costumer service they need training and a constant bug spray daily!MoreShow less</t>
+  </si>
+  <si>
+    <t>Patricia K, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2016</t>
+  </si>
+  <si>
+    <t>There where roaches crawling in the room on the night stand by the bed. Called front desk and asked for roach spray or another room. They never called back giving them the benefit of the doubt to attend to the costumers issues. NOTHING! NO call no showing up at the room to see if they could help. Poor costumer service they need training and a constant bug spray daily!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r424070711-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -843,6 +1266,45 @@
     <t>Responded September 7, 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r410297209-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410297209</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>LQ6093GM, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r369351164-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369351164</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>Fair location, fair price</t>
+  </si>
+  <si>
+    <t>La Quinta standard service, clean rooms, comfortable bed, free Wi-Fi, flat TV screen and basic breakfast. This location has excellent staff and customer service. I recommend it if you need to be near the airport for a couple nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ6093GM, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded May 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2016</t>
+  </si>
+  <si>
+    <t>La Quinta standard service, clean rooms, comfortable bed, free Wi-Fi, flat TV screen and basic breakfast. This location has excellent staff and customer service. I recommend it if you need to be near the airport for a couple nights.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r367022740-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -861,12 +1323,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>LQ6093GM, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded May 2, 2016</t>
-  </si>
-  <si>
-    <t>Responded May 2, 2016</t>
-  </si>
-  <si>
     <t>Stayed at this hotel last night with my family. Other than the friendly night front desk employee(she offered to switch one of our rooms to another floor due to the smoke smell), I don't have much else positive to report. Our room was supposed to be non smoking, but it smelled of smoke, and there was not a "NON SMOKING" sign outside the door as there were outside other rooms. Our smoke detector needed a new battery because it kept beeping, and the chair in our room had a large tear and chunk out of it. My husband called the front desk 4 times, but no one ever answered the phone so we told them the next time we went down. While we were out they did spray some air freshener or something in the room and replace the smoke detector batteries. We were supposed to get Elite member perks such as a snack, water and late check out. When staying at other La Quintas this has always been given upon check in, but yesterday it seemed to be an issue. After I asked, we were reluctantly given 3 bottled waters, 3 individual size bags of pretzels and, after checking with a manager first, told it was okay to have the late check out on the 3 rooms we had. Forewarning though, even if you have a late 1 p.m. check out your room keys turn off at noon. We...Stayed at this hotel last night with my family. Other than the friendly night front desk employee(she offered to switch one of our rooms to another floor due to the smoke smell), I don't have much else positive to report. Our room was supposed to be non smoking, but it smelled of smoke, and there was not a "NON SMOKING" sign outside the door as there were outside other rooms. Our smoke detector needed a new battery because it kept beeping, and the chair in our room had a large tear and chunk out of it. My husband called the front desk 4 times, but no one ever answered the phone so we told them the next time we went down. While we were out they did spray some air freshener or something in the room and replace the smoke detector batteries. We were supposed to get Elite member perks such as a snack, water and late check out. When staying at other La Quintas this has always been given upon check in, but yesterday it seemed to be an issue. After I asked, we were reluctantly given 3 bottled waters, 3 individual size bags of pretzels and, after checking with a manager first, told it was okay to have the late check out on the 3 rooms we had. Forewarning though, even if you have a late 1 p.m. check out your room keys turn off at noon. We had to get cleaning crew to open ours. The breakfast buffet was the worst I've ever had. There was 1 apple in the fruit basket, there were 4 yogurts, but after taking one out of the tub of ice and seeing an unidentifiable rust colored puddle form under it (it was blueberry) I put it back, 1 sausage, a few scrambled eggs and a few french toast sticks (I think that's what they were) in a warmer, a waffle maker, but no butter or margarine, and only decaf coffee. There was no one attending the breakfast buffet as there usually is at most hotels we stay at, and every single time I went to the front desk, there was no one there. I had to yell for someone every time.  When I went during the breakfast buffet to ask if there was regular coffee, I was told, "It's coming."  There was only one vanilla  creamer, and a few hazelnuts. There were a few packets of instant oatmeal, but no butter or other toppings. I couldn't ask for stuff because no one was around. Finally, I understand Houston was hit with some heavy rains and flooding a week ago and the weather cannot be helped, but it seemed as if no one bothered to right the upside down, thrown around pool furniture as there were chairs and tables in bushes and scattered about. The hot tub was cold. When I found someone to ask about the trick to making the hot tub hot, I was told, "I think it's broken and we just haven't put a sign up yet, But I'll ask the manager if the heat's turned on." When I went back outside the heat was turned on, but I think it takes a while to warm the whole tub as it never really got hot before we left. I was not at all sad to leave. My advice to you is read reviews. I usually only write them for the exceptional and the worst. I felt compelled to share my experience at this La Quinta. Spend your money on a nicer hotel.More</t>
   </si>
   <si>
@@ -906,6 +1362,51 @@
     <t>LQ6093GM, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded May 9, 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r357733831-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357733831</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Been in worse</t>
+  </si>
+  <si>
+    <t>Hotel needs a good cleaning. The neighborhood leaves little to be desired, other than a few restaurants. Front desk staff is the best thing going for this hotel. I gave the rooms an average score because the bed was comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Hotel needs a good cleaning. The neighborhood leaves little to be desired, other than a few restaurants. Front desk staff is the best thing going for this hotel. I gave the rooms an average score because the bed was comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r356469030-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356469030</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>LaQunita Houston I-45 North at 1960</t>
+  </si>
+  <si>
+    <t>Newly renovated rooms and lobby have made a big difference in this hotel.  For the money you will be hard pressed to find anything nearby that offers the same quality of service.  Been staying here for 10+ years and great to see the investment in the hotel.  Great for business travelers as WiFi is fast.  Only drawback is that you are near an area where you might see some interesting people late at night or early in the morning due to the RaceTrac gas station that's nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ6093GM, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded March 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2016</t>
+  </si>
+  <si>
+    <t>Newly renovated rooms and lobby have made a big difference in this hotel.  For the money you will be hard pressed to find anything nearby that offers the same quality of service.  Been staying here for 10+ years and great to see the investment in the hotel.  Great for business travelers as WiFi is fast.  Only drawback is that you are near an area where you might see some interesting people late at night or early in the morning due to the RaceTrac gas station that's nearby.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r349428937-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1479,57 @@
     <t>Although this La Quinta is comparable to other better La Quinta's, this specific area is home to homeless people and vagrants.  Although the property has video cameras, there is no secrity to prevent a vehicle breakin.  Also, other hotels/motels in this area are priced in the $29 - $39 range, versus $100 for this LQ.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r336177108-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>336177108</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Family and Pet Friendly</t>
+  </si>
+  <si>
+    <t>We always stay at La Quinta on our family travels.  Even though we travel with our pets La Quinta always offers the same standard of cleanliness and hospitality.  This La Quinta was no exception and we had a very large and modern room with fridge/freezer, microwave, and free wifi.  The decoration was exceptional and the hotel has just received complete renovation.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>LQ6093GM, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded January 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2016</t>
+  </si>
+  <si>
+    <t>We always stay at La Quinta on our family travels.  Even though we travel with our pets La Quinta always offers the same standard of cleanliness and hospitality.  This La Quinta was no exception and we had a very large and modern room with fridge/freezer, microwave, and free wifi.  The decoration was exceptional and the hotel has just received complete renovation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r334433935-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334433935</t>
+  </si>
+  <si>
+    <t>12/18/2015</t>
+  </si>
+  <si>
+    <t>Attending Amber's Wedding</t>
+  </si>
+  <si>
+    <t>The service with a smile, the convenient location and the access to the highway, the wedding chapel and I-45 was excellent.  The food was good, the staff was really efficient and the grounds were appealing.  Parking was great - near the door and close to our room.MoreShow less</t>
+  </si>
+  <si>
+    <t>LQ6093GM, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded December 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2015</t>
+  </si>
+  <si>
+    <t>The service with a smile, the convenient location and the access to the highway, the wedding chapel and I-45 was excellent.  The food was good, the staff was really efficient and the grounds were appealing.  Parking was great - near the door and close to our room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r331548125-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -993,9 +1545,6 @@
     <t>My husband and I are loyal La Quinta customers and we are never disappointed. They are pet friendly with no extra charge, rooms are always nice and clean, staff are friendly and accommodating. Not the cheapest hotel in town, but definitely worth the price!MoreShow less</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
     <t>LQ6093GM, General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded December 10, 2015</t>
   </si>
   <si>
@@ -1041,6 +1590,39 @@
     <t>Responded November 6, 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r304266538-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>304266538</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Our mini vacation</t>
+  </si>
+  <si>
+    <t>We went to Houston due to my husbands job.  We might be relocating to the Houston or Humble area. I enjoyed our stay and especially that we were able to bring our Divas (we have two Chihuahuas). We had the breakfast, which was not gourmet, but it was breakfast and we enjoyed it. Even the babies ate the scrambled eggs! :}</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r301715838-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301715838</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Vacation first stop</t>
+  </si>
+  <si>
+    <t>This was our first trip to Houston. The location was easy to find. Breakfast was alright. The staff were very attentive and polite. We forgot some shorts in closet and they promptly mailed to my hometown before we even got home from vacation.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r301715411-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -1056,9 +1638,6 @@
     <t>The staff (Donna and Mike) were fabulous!  Our accommodations were terrific.  Although this facility is 35 min. away from our relatives, we will stay here again.   We were able to visit relatives as well as classmates from 1973.</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r284626113-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -1095,6 +1674,42 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r271709697-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271709697</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Houston Stay</t>
+  </si>
+  <si>
+    <t>The hotel was very nice; clean; staff were awesome.   The lady at check in helped get us both rooms on the same floor.  She was very helpful and quick.  We were checked in very quickly. The down side of the hotel is it's location.  We were afraid to leave our room after dark. Also the breakfast was pretty bad.  Boiled eggs for breakfast; rubbery sausage.  Waffles would have been ok except that I am diabetic and they didn't have any sugar free syrup.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r262506191-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262506191</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>6 Rms reserved...</t>
+  </si>
+  <si>
+    <t>We reserved 6 rooms for a family get together. 1. Burn holes in bedding in a non-smoking room. 2. Shower broken in one room and had to request it be fixed x2. 3. No breakfast available one morning although it was advertised. 4. AC didn't work in two of the rooms. 5. Manager spent more time making excuses than fixing the issues. 6. We left he room so it could be cleaned and only one bed was made and nothing else in the room was touched. Not impressed with the condition and management of this LaQuinta compared to the others I have stayed in. Our family will book elsewhere next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>We reserved 6 rooms for a family get together. 1. Burn holes in bedding in a non-smoking room. 2. Shower broken in one room and had to request it be fixed x2. 3. No breakfast available one morning although it was advertised. 4. AC didn't work in two of the rooms. 5. Manager spent more time making excuses than fixing the issues. 6. We left he room so it could be cleaned and only one bed was made and nothing else in the room was touched. Not impressed with the condition and management of this LaQuinta compared to the others I have stayed in. Our family will book elsewhere next year.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r260658999-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -1110,9 +1725,6 @@
     <t>The hotel staff was very kind and courteous. They recommended the best route to take to my dog's opthlamologist's office and showed concern for his well being.  It made a stressful time less stressful! The hotel was well located but far enough from the highway to be quiet. The breakfast was convenient as well.</t>
   </si>
   <si>
-    <t>March 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r249668067-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1752,36 @@
     <t>01/14/2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r245187005-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245187005</t>
+  </si>
+  <si>
+    <t>12/19/2014</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>Room not vacuumed, sheets had hair on them and water stains, toilet had urine and pubic hair GROSS- the mirrors in bathroom were also NOT CLEANED!!! I had to change sheets I also cleaned toilet and sink. When I called front desk  lady was nice but I had to go down to get sheets and instead of saying sorry for  your inconvenience she said, "thanks for your help!" Really ?!? Don't stay here if  your looking for a clean place to stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r243028804-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243028804</t>
+  </si>
+  <si>
+    <t>12/01/2014</t>
+  </si>
+  <si>
+    <t>A very nice lady at front desk, she will solve issues with an smile and quickly, this by itself will make few other bad points to go away. My only complain was the bathroom, somehow it has the sense of humidity, but Houston in general is like that.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r238567808-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1845,36 @@
     <t>I stay here often as I have business very near this hotel  Being located on FM1960 near I-45 makes it convenient when coming from IAH also.  The hotel has always appeared clean and neat both inside and out.  The rooms are fairly large with a great working area which allows me plenty of room to spread out.  The staff is always friendly and responds well to any issues.  I never notice any noise and I usually sleep really well.  The exercise room has nice equipment but is somewhat small and would be nice if they enlarged it.  The breakfast is a hot breakfast but I find the food a little too prepared and doesn't really appeal to me.  I usually eat somewhere else anyway so this is not a major consideration of where I stay.  I have looked at other hotels in the area but the price for what you do get here is good.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r225189258-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225189258</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>Noisy AC</t>
+  </si>
+  <si>
+    <t>First room had mold and a dirty toilet.  The manager readily changed rooms but argued the mold wasn't mold and the dirt was rust.  Insulting. Change to a room with an air conditioner that woke us up when it shut off.  Grounds full of dog poop.  The only redeeming quality, the breakfast was good.  Would not stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r219854140-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>219854140</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Clean sleep....</t>
+  </si>
+  <si>
+    <t>We stayed three nights.  The beds were comfortable and the staff friendly.  We moved our son to Houston, and had a Uhaul parked there overnight without problems.  Pet friendly.  Our room was clean and the beds new.    Read other reviews of this property and did not find any problems that were listed.  I would stay there again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r217179869-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -1254,6 +1926,42 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r207979530-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>207979530</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>SAFE</t>
+  </si>
+  <si>
+    <t>I felt safe as well as comfortable at this Hotel. Everyone treated me like I was a celebrity . Real first class. I enjoyed the pool ,and the work out room as well as the hot breakfast. I would like to have seen more healthy choices but it was good. Employees were very professional.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r201634986-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201634986</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Had a wonderful stay at LaQuinta</t>
+  </si>
+  <si>
+    <t>Felt very comfortable  and secure in our weekend stay, The employees went out of their way, to make sure all of our needs were taken care of.  Beds and pillows were very comfortable, I was able to sleep the whole night through without any interruptions. Very important to me as I am a very light sleeper.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r200663760-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -1305,6 +2013,42 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r188626545-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188626545</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>Very quiet &amp; nice</t>
+  </si>
+  <si>
+    <t>We stayed here quite a few times &amp; it's always been great. The rooms are updated with beautiful, clean  rooms &amp; there are eggs, sausage, &amp; biscuits for breakfast. And the checkout  is very quick. The WIFI is fast but very little hot water for the shower. Other than that I loved my stay.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r186645471-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186645471</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>Very Comforting</t>
+  </si>
+  <si>
+    <t>The La Quinta was located near my mom who was in a nursing home the last several years. The staff was excellent plus dogs (mine Doberman) welcomed without a fee. When my mom passed, the staff made rooms available for the family at a time of no vacancies.  This made it very easy for the family together at one place. The hotel is not fancy but has improved over the years. Breakfast is average - don't be late or you will miss out!  Thank you Donna and Emmalee for taking great care of me and my family over the last several years.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r182802805-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -1320,9 +2064,6 @@
     <t>Great Hotel ! Made reservations well in advance, got a good rate and everything went smoothly. Clean, comfortable and a great breakfast too. If we are in the area again we will definitely stay again. You will not be disappointed!</t>
   </si>
   <si>
-    <t>October 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r182246645-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -1356,6 +2097,36 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r157926807-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157926807</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r151186749-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151186749</t>
+  </si>
+  <si>
+    <t>02/01/2013</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>Stayed in a King bed room nonsmoking. Location is good, and quiet. Clean and in good condition. Checked in late and slept well. Only used to sleep and bath and then ate the breakfast buffet. The food contained hot and cold items and the usuals. Woudl recommend since in a good area and near a major hiway and major street.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r150983402-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -1371,9 +2142,6 @@
     <t>Originally booked a handicapped 2-bed room, for 2 adults.  Had planned on adding 1 adult and 2 kids to that room for the 2nd night (for just a few hours of sleep).  Turned out the room area was not suitably large enough (physically or mentally) for 5, so I got a 2nd room last minute.  I was a bit shocked to hear that the 2nd room would be almost $20 more than my first room.  I was told that rates go up the more booked the hotel is.. guess that is way of the world.  The front desk lady was more than nice though.. she moved around some folks who had not yet arrived, to help get my family closer to their grandparents.  So that worked out... just hate to pay ~$200 for the two rooms.. seems a bit much for the area.  The hotel is extremely clean, safe, etc... It is also pet friendly.  Had a bit of trouble with the wifi... I couldn't get any of the three possible connections to connect for around 30 minutes.  My folks stay here often, and always have a good experience. So they are repeat customers.MoreShow less</t>
   </si>
   <si>
-    <t>January 2013</t>
-  </si>
-  <si>
     <t>Originally booked a handicapped 2-bed room, for 2 adults.  Had planned on adding 1 adult and 2 kids to that room for the 2nd night (for just a few hours of sleep).  Turned out the room area was not suitably large enough (physically or mentally) for 5, so I got a 2nd room last minute.  I was a bit shocked to hear that the 2nd room would be almost $20 more than my first room.  I was told that rates go up the more booked the hotel is.. guess that is way of the world.  The front desk lady was more than nice though.. she moved around some folks who had not yet arrived, to help get my family closer to their grandparents.  So that worked out... just hate to pay ~$200 for the two rooms.. seems a bit much for the area.  The hotel is extremely clean, safe, etc... It is also pet friendly.  Had a bit of trouble with the wifi... I couldn't get any of the three possible connections to connect for around 30 minutes.  My folks stay here often, and always have a good experience. So they are repeat customers.More</t>
   </si>
   <si>
@@ -1401,6 +2169,39 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r142506482-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142506482</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>Home away from home at La Quinta inn and Suite</t>
+  </si>
+  <si>
+    <t>I have to come to Houston Texas on business fairly regular and have found that the LaQuinta at I-45  and 1960 is a great place to stay. The folks are always friendly and always take care of you,if you need something or forgot something they will make sure you are taken care of. I have stayed at other La Quinta's in Houston and most all of them were ok but this is the best for service and a good night's sleep.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r140947271-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140947271</t>
+  </si>
+  <si>
+    <t>09/22/2012</t>
+  </si>
+  <si>
+    <t>I checked in around 8:30pm and found I had made my reservation at the wrong La Quinta.  Mike helped me cancel that reservation and gave me a great room away from smokers.  I didn't smell any smoke at any time I was there.  The room was so clean with a comfortable bed.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r129099094-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
   </si>
   <si>
@@ -1453,6 +2254,60 @@
   </si>
   <si>
     <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r92222946-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>92222946</t>
+  </si>
+  <si>
+    <t>01/08/2011</t>
+  </si>
+  <si>
+    <t>BED BUGS!</t>
+  </si>
+  <si>
+    <t>Checked into Room 211 - after about an hour the bed bugs started showing up! Night Mgr moved us next door to 209. I went down to lobby with a few captured bugs. Kid at desk mentioned about a month ago Rm 208 complained about bed bugs!  I had them move me to 1st floor. No bugs, but room down and across the hall were yelling at each other for 3 hours!Man was this place poor and I've stayed at various  LQ a lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>stanchere, Assistant General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded January 19, 2011</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2011</t>
+  </si>
+  <si>
+    <t>Checked into Room 211 - after about an hour the bed bugs started showing up! Night Mgr moved us next door to 209. I went down to lobby with a few captured bugs. Kid at desk mentioned about a month ago Rm 208 complained about bed bugs!  I had them move me to 1st floor. No bugs, but room down and across the hall were yelling at each other for 3 hours!Man was this place poor and I've stayed at various  LQ a lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r45363482-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>45363482</t>
+  </si>
+  <si>
+    <t>09/28/2009</t>
+  </si>
+  <si>
+    <t>ok hotel in a rapidly decaying part of town</t>
+  </si>
+  <si>
+    <t>hotel is ok but it appears it has been rode hard and put away wet for as new as it is. The rooms look worn for only being a few years old. Maybe they had Katrina or Ike refuges living there with government vouchers?  We saw hookers and pimps working the street behind the hotel and in the convenience store in front of the hotel. Take everything out of your vehicle at night. They had to hire guard to walk parking lot at night. Numberous homeless live under the interstate less than 3 blocks from hotel. Avoid if you have children or a wife.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>stanchere, Assistant General Manager at La Quinta Inn &amp; Suites Houston I-45 North at 1960, responded to this reviewResponded October 2, 2009</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2009</t>
+  </si>
+  <si>
+    <t>hotel is ok but it appears it has been rode hard and put away wet for as new as it is. The rooms look worn for only being a few years old. Maybe they had Katrina or Ike refuges living there with government vouchers?  We saw hookers and pimps working the street behind the hotel and in the convenience store in front of the hotel. Take everything out of your vehicle at night. They had to hire guard to walk parking lot at night. Numberous homeless live under the interstate less than 3 blocks from hotel. Avoid if you have children or a wife.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d645215-r33654099-La_Quinta_Inn_Suites_Houston_I_45_North_at_1960-Houston_Texas.html</t>
@@ -2014,7 +2869,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -2026,10 +2881,14 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>4</v>
@@ -2081,25 +2940,25 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -2109,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
         <v>63</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>64</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -2131,40 +2990,40 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
         <v>70</v>
       </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
-      </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
         <v>4</v>
@@ -2174,19 +3033,19 @@
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
         <v>72</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>73</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -2202,52 +3061,58 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2263,34 +3128,34 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>85</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
         <v>86</v>
-      </c>
-      <c r="K6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" t="s">
-        <v>52</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2312,13 +3177,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -2334,62 +3199,62 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>92</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>93</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>94</v>
       </c>
-      <c r="L7" t="s">
-        <v>95</v>
-      </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -2405,62 +3270,60 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s">
         <v>101</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>102</v>
       </c>
-      <c r="J8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>106</v>
-      </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -2476,62 +3339,62 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
         <v>110</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" t="s">
-        <v>112</v>
-      </c>
-      <c r="K9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" t="s">
-        <v>114</v>
-      </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R9" t="n">
         <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -2547,34 +3410,34 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
         <v>118</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
         <v>119</v>
       </c>
-      <c r="J10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K10" t="s">
-        <v>121</v>
-      </c>
-      <c r="L10" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>106</v>
-      </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2586,13 +3449,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -2608,52 +3471,62 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
         <v>126</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>127</v>
       </c>
-      <c r="J11" t="s">
-        <v>128</v>
-      </c>
-      <c r="K11" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" t="s">
-        <v>130</v>
-      </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="O11" t="s">
         <v>52</v>
       </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -2669,56 +3542,62 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
         <v>135</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>136</v>
-      </c>
-      <c r="J12" t="s">
-        <v>137</v>
-      </c>
-      <c r="K12" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" t="s">
-        <v>139</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>131</v>
-      </c>
-      <c r="O12" t="s">
-        <v>97</v>
-      </c>
-      <c r="P12" t="s"/>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
       <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
@@ -2734,62 +3613,62 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
         <v>143</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
-        <v>144</v>
-      </c>
-      <c r="J13" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" t="s">
-        <v>146</v>
-      </c>
-      <c r="L13" t="s">
-        <v>147</v>
-      </c>
       <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
         <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>131</v>
-      </c>
-      <c r="O13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
@@ -2805,62 +3684,56 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" t="s">
         <v>151</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
-        <v>152</v>
-      </c>
-      <c r="J14" t="s">
-        <v>153</v>
-      </c>
-      <c r="K14" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" t="s">
-        <v>155</v>
-      </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
@@ -2876,62 +3749,62 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>160</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
-        <v>161</v>
-      </c>
-      <c r="J15" t="s">
-        <v>162</v>
-      </c>
-      <c r="K15" t="s">
-        <v>163</v>
-      </c>
-      <c r="L15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>165</v>
-      </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
@@ -2947,62 +3820,62 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
         <v>169</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
-        <v>170</v>
-      </c>
-      <c r="J16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K16" t="s">
-        <v>172</v>
-      </c>
-      <c r="L16" t="s">
-        <v>173</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>165</v>
-      </c>
-      <c r="O16" t="s">
-        <v>71</v>
-      </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="X16" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="Y16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
@@ -3018,62 +3891,52 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
         <v>177</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="X17" t="s">
         <v>178</v>
       </c>
-      <c r="J17" t="s">
+      <c r="Y17" t="s">
         <v>179</v>
-      </c>
-      <c r="K17" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" t="s">
-        <v>181</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>182</v>
-      </c>
-      <c r="O17" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
-      <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="s">
-        <v>183</v>
-      </c>
-      <c r="X17" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="18">
@@ -3089,7 +3952,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -3098,43 +3961,53 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
@@ -3150,7 +4023,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -3159,51 +4032,53 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
-      </c>
-      <c r="K19" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
       <c r="L19" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="X19" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
@@ -3219,62 +4094,52 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
         <v>202</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="X20" t="s">
         <v>203</v>
       </c>
-      <c r="J20" t="s">
+      <c r="Y20" t="s">
         <v>204</v>
-      </c>
-      <c r="K20" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" t="s">
-        <v>206</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>207</v>
-      </c>
-      <c r="O20" t="s">
-        <v>97</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
-      <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="s">
-        <v>208</v>
-      </c>
-      <c r="X20" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="21">
@@ -3290,7 +4155,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -3299,38 +4164,32 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="n">
         <v>5</v>
       </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -3339,13 +4198,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
@@ -3361,7 +4220,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -3370,34 +4229,38 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
         <v>52</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -3406,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="X22" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
@@ -3428,7 +4291,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3437,53 +4300,53 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="X23" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
@@ -3499,7 +4362,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3508,53 +4371,53 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K24" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Y24" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25">
@@ -3570,7 +4433,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3579,49 +4442,53 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K25" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
         <v>52</v>
       </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
         <v>4</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="X25" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Y25" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
@@ -3637,52 +4504,62 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s">
+        <v>86</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
         <v>252</v>
       </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="X26" t="s">
         <v>253</v>
       </c>
-      <c r="J26" t="s">
+      <c r="Y26" t="s">
         <v>254</v>
-      </c>
-      <c r="K26" t="s">
-        <v>255</v>
-      </c>
-      <c r="L26" t="s">
-        <v>256</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>257</v>
-      </c>
-      <c r="O26" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
-      <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s">
-        <v>258</v>
-      </c>
-      <c r="X26" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="27">
@@ -3698,7 +4575,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3707,25 +4584,25 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3741,19 +4618,19 @@
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="X27" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Y27" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28">
@@ -3769,7 +4646,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3778,23 +4655,25 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J28" t="s">
-        <v>271</v>
-      </c>
-      <c r="K28" t="s"/>
+        <v>265</v>
+      </c>
+      <c r="K28" t="s">
+        <v>266</v>
+      </c>
       <c r="L28" t="s">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3816,13 +4695,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="X28" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Y28" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
@@ -3838,56 +4717,62 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" t="s">
         <v>275</v>
       </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>276</v>
       </c>
-      <c r="J29" t="s">
-        <v>277</v>
-      </c>
-      <c r="K29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L29" t="s">
-        <v>279</v>
-      </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="O29" t="s">
-        <v>71</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="X29" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="Y29" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
@@ -3903,7 +4788,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3912,25 +4797,25 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="O30" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3952,13 +4837,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="X30" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Y30" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
@@ -3974,7 +4859,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3983,51 +4868,43 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J31" t="s">
-        <v>294</v>
-      </c>
-      <c r="K31" t="s"/>
+        <v>288</v>
+      </c>
+      <c r="K31" t="s">
+        <v>289</v>
+      </c>
       <c r="L31" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>1</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="X31" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Y31" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32">
@@ -4043,56 +4920,60 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
+        <v>295</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
         <v>296</v>
       </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>297</v>
       </c>
-      <c r="J32" t="s">
-        <v>298</v>
-      </c>
-      <c r="K32" t="s">
-        <v>299</v>
-      </c>
+      <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
       </c>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="X32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Y32" t="s">
-        <v>304</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -4108,7 +4989,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -4117,25 +4998,25 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J33" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="O33" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4144,26 +5025,26 @@
         <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="X33" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Y33" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
@@ -4179,7 +5060,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -4188,53 +5069,51 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="J34" t="s">
-        <v>316</v>
-      </c>
-      <c r="K34" t="s">
-        <v>317</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>318</v>
+        <v>101</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
         <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="X34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y34" t="s">
-        <v>319</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
@@ -4250,7 +5129,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -4259,25 +5138,25 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J35" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K35" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="O35" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4299,13 +5178,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="X35" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="Y35" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36">
@@ -4321,7 +5200,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4330,34 +5209,34 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="J36" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="K36" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="L36" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4369,10 +5248,14 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>327</v>
+      </c>
+      <c r="X36" t="s">
+        <v>328</v>
+      </c>
       <c r="Y36" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
@@ -4388,60 +5271,58 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>333</v>
+      </c>
+      <c r="L37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
         <v>335</v>
       </c>
-      <c r="G37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" t="s">
-        <v>336</v>
-      </c>
-      <c r="J37" t="s">
-        <v>337</v>
-      </c>
-      <c r="K37" t="s"/>
-      <c r="L37" t="s">
-        <v>198</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="s">
-        <v>338</v>
-      </c>
       <c r="O37" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="X37" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Y37" t="s">
-        <v>201</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38">
@@ -4457,34 +5338,34 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
+        <v>339</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>340</v>
+      </c>
+      <c r="J38" t="s">
         <v>341</v>
       </c>
-      <c r="G38" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>342</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>343</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
         <v>344</v>
       </c>
-      <c r="L38" t="s">
-        <v>345</v>
-      </c>
-      <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>346</v>
-      </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4505,8 +5386,12 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>336</v>
+      </c>
+      <c r="X38" t="s">
+        <v>337</v>
+      </c>
       <c r="Y38" t="s">
         <v>345</v>
       </c>
@@ -4524,58 +5409,62 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
+        <v>346</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
         <v>347</v>
       </c>
-      <c r="G39" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>348</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>349</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>350</v>
       </c>
-      <c r="L39" t="s">
-        <v>351</v>
-      </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="O39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>351</v>
+      </c>
+      <c r="X39" t="s">
+        <v>352</v>
+      </c>
       <c r="Y39" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40">
@@ -4591,7 +5480,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4600,49 +5489,53 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J40" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K40" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="O40" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
         <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>359</v>
+      </c>
+      <c r="X40" t="s">
+        <v>360</v>
+      </c>
       <c r="Y40" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41">
@@ -4658,7 +5551,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4667,49 +5560,53 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="J41" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K41" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="O41" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>359</v>
+      </c>
+      <c r="X41" t="s">
+        <v>360</v>
+      </c>
       <c r="Y41" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42">
@@ -4725,7 +5622,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4734,49 +5631,49 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="J42" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K42" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="O42" t="s">
         <v>52</v>
       </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
-      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
         <v>3</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>374</v>
+      </c>
+      <c r="X42" t="s">
+        <v>375</v>
+      </c>
       <c r="Y42" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43">
@@ -4792,7 +5689,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4801,33 +5698,37 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="J43" t="s">
-        <v>373</v>
-      </c>
-      <c r="K43" t="s"/>
-      <c r="L43" t="s"/>
+        <v>379</v>
+      </c>
+      <c r="K43" t="s">
+        <v>380</v>
+      </c>
+      <c r="L43" t="s">
+        <v>381</v>
+      </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="O43" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
@@ -4836,9 +5737,15 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
+      <c r="W43" t="s">
+        <v>382</v>
+      </c>
+      <c r="X43" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4853,7 +5760,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4862,49 +5769,53 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="J44" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="K44" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="L44" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="O44" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>390</v>
+      </c>
+      <c r="X44" t="s">
+        <v>391</v>
+      </c>
       <c r="Y44" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45">
@@ -4920,7 +5831,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4929,43 +5840,43 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="J45" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="K45" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="L45" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="O45" t="s">
-        <v>71</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>2</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>399</v>
+      </c>
+      <c r="X45" t="s">
+        <v>400</v>
+      </c>
       <c r="Y45" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46">
@@ -4981,7 +5892,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4990,32 +5901,38 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="J46" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="K46" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="L46" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="O46" t="s">
         <v>52</v>
       </c>
-      <c r="P46" t="s"/>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
       <c r="Q46" t="n">
         <v>4</v>
       </c>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -5023,10 +5940,14 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>407</v>
+      </c>
+      <c r="X46" t="s">
+        <v>408</v>
+      </c>
       <c r="Y46" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47">
@@ -5042,7 +5963,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -5051,49 +5972,51 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="J47" t="s">
-        <v>397</v>
-      </c>
-      <c r="K47" t="s">
-        <v>398</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>399</v>
+        <v>101</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>414</v>
+      </c>
+      <c r="X47" t="s">
+        <v>415</v>
+      </c>
       <c r="Y47" t="s">
-        <v>399</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
@@ -5109,7 +6032,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -5118,39 +6041,51 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="J48" t="s">
-        <v>403</v>
-      </c>
-      <c r="K48" t="s">
-        <v>404</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="K48" t="s"/>
       <c r="L48" t="s">
-        <v>405</v>
+        <v>101</v>
       </c>
       <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>413</v>
+      </c>
+      <c r="O48" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" t="n">
         <v>2</v>
       </c>
-      <c r="N48" t="s">
-        <v>400</v>
-      </c>
-      <c r="O48" t="s">
-        <v>52</v>
-      </c>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
-      <c r="S48" t="s"/>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>419</v>
+      </c>
+      <c r="X48" t="s">
+        <v>420</v>
+      </c>
       <c r="Y48" t="s">
-        <v>405</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49">
@@ -5166,7 +6101,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -5175,49 +6110,39 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="J49" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="K49" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="L49" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
-      </c>
-      <c r="N49" t="s">
-        <v>411</v>
-      </c>
-      <c r="O49" t="s">
-        <v>52</v>
-      </c>
-      <c r="P49" t="n">
         <v>3</v>
       </c>
-      <c r="Q49" t="n">
-        <v>2</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2</v>
-      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>2</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>426</v>
+      </c>
+      <c r="X49" t="s">
+        <v>427</v>
+      </c>
       <c r="Y49" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50">
@@ -5233,7 +6158,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -5242,49 +6167,47 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="J50" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="K50" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="L50" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="O50" t="s">
-        <v>97</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>426</v>
+      </c>
+      <c r="X50" t="s">
+        <v>427</v>
+      </c>
       <c r="Y50" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51">
@@ -5300,7 +6223,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -5309,49 +6232,53 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="J51" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="K51" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="L51" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="O51" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>441</v>
+      </c>
+      <c r="X51" t="s">
+        <v>442</v>
+      </c>
       <c r="Y51" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52">
@@ -5367,7 +6294,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -5376,49 +6303,51 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="J52" t="s">
-        <v>425</v>
-      </c>
-      <c r="K52" t="s">
-        <v>426</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="K52" t="s"/>
       <c r="L52" t="s">
-        <v>427</v>
+        <v>101</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="O52" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
         <v>3</v>
       </c>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>447</v>
+      </c>
+      <c r="X52" t="s">
+        <v>442</v>
+      </c>
       <c r="Y52" t="s">
-        <v>427</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53">
@@ -5434,7 +6363,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -5443,37 +6372,37 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="J53" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="K53" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="L53" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="O53" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
@@ -5482,10 +6411,14 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>447</v>
+      </c>
+      <c r="X53" t="s">
+        <v>442</v>
+      </c>
       <c r="Y53" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54">
@@ -5501,7 +6434,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -5510,37 +6443,37 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="J54" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="K54" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="L54" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="O54" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
         <v>5</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
@@ -5549,10 +6482,14 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>460</v>
+      </c>
+      <c r="X54" t="s">
+        <v>461</v>
+      </c>
       <c r="Y54" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55">
@@ -5568,7 +6505,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5577,49 +6514,47 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="J55" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="K55" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="L55" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="O55" t="s">
         <v>52</v>
       </c>
       <c r="P55" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q55" t="n">
         <v>3</v>
       </c>
-      <c r="R55" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>469</v>
+      </c>
+      <c r="X55" t="s">
+        <v>470</v>
+      </c>
       <c r="Y55" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56">
@@ -5635,7 +6570,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5644,49 +6579,53 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="J56" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="K56" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="L56" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="O56" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="P56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>478</v>
+      </c>
+      <c r="X56" t="s">
+        <v>479</v>
+      </c>
       <c r="Y56" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57">
@@ -5702,7 +6641,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5711,47 +6650,53 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="J57" t="s">
-        <v>455</v>
-      </c>
-      <c r="K57" t="s"/>
+        <v>483</v>
+      </c>
+      <c r="K57" t="s">
+        <v>484</v>
+      </c>
       <c r="L57" t="s">
-        <v>198</v>
+        <v>485</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="O57" t="s">
         <v>52</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>478</v>
+      </c>
+      <c r="X57" t="s">
+        <v>479</v>
+      </c>
       <c r="Y57" t="s">
-        <v>201</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58">
@@ -5767,7 +6712,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5776,44 +6721,50 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="J58" t="s">
-        <v>459</v>
-      </c>
-      <c r="K58" t="s"/>
-      <c r="L58" t="s"/>
+        <v>489</v>
+      </c>
+      <c r="K58" t="s">
+        <v>490</v>
+      </c>
+      <c r="L58" t="s">
+        <v>491</v>
+      </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="O58" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
       <c r="R58" t="n">
         <v>5</v>
       </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
+      <c r="W58" t="s">
+        <v>493</v>
+      </c>
+      <c r="X58" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5828,7 +6779,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5837,25 +6788,25 @@
         <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="J59" t="s">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="K59" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="L59" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="O59" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5876,10 +6827,14 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>501</v>
+      </c>
+      <c r="X59" t="s">
+        <v>502</v>
+      </c>
       <c r="Y59" t="s">
-        <v>465</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60">
@@ -5895,7 +6850,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -5904,34 +6859,34 @@
         <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="J60" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="K60" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="L60" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="O60" t="s">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="P60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -5943,10 +6898,14 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>509</v>
+      </c>
+      <c r="X60" t="s">
+        <v>510</v>
+      </c>
       <c r="Y60" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
     </row>
     <row r="61">
@@ -5962,7 +6921,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -5971,31 +6930,31 @@
         <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="J61" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="K61" t="s">
-        <v>476</v>
+        <v>515</v>
       </c>
       <c r="L61" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="O61" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="P61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R61" t="n">
         <v>5</v>
@@ -6013,7 +6972,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>477</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62">
@@ -6029,7 +6988,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
       <c r="G62" t="s">
         <v>45</v>
@@ -6038,37 +6997,35 @@
         <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="J62" t="s">
-        <v>481</v>
-      </c>
-      <c r="K62" t="s">
-        <v>482</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="K62" t="s"/>
       <c r="L62" t="s">
-        <v>483</v>
+        <v>101</v>
       </c>
       <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>521</v>
+      </c>
+      <c r="O62" t="s">
+        <v>70</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
         <v>3</v>
       </c>
-      <c r="N62" t="s">
-        <v>484</v>
-      </c>
-      <c r="O62" t="s">
-        <v>52</v>
-      </c>
-      <c r="P62" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
       <c r="R62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
@@ -6078,13 +7035,2840 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="X62" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="Y62" t="s">
-        <v>487</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>524</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>525</v>
+      </c>
+      <c r="J63" t="s">
+        <v>526</v>
+      </c>
+      <c r="K63" t="s">
+        <v>527</v>
+      </c>
+      <c r="L63" t="s">
+        <v>528</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>529</v>
+      </c>
+      <c r="O63" t="s">
+        <v>70</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>530</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>531</v>
+      </c>
+      <c r="J64" t="s">
+        <v>532</v>
+      </c>
+      <c r="K64" t="s">
+        <v>533</v>
+      </c>
+      <c r="L64" t="s">
+        <v>534</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>529</v>
+      </c>
+      <c r="O64" t="s">
+        <v>70</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>535</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>536</v>
+      </c>
+      <c r="J65" t="s">
+        <v>537</v>
+      </c>
+      <c r="K65" t="s">
+        <v>538</v>
+      </c>
+      <c r="L65" t="s">
+        <v>539</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>529</v>
+      </c>
+      <c r="O65" t="s">
+        <v>70</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>540</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>541</v>
+      </c>
+      <c r="J66" t="s">
+        <v>542</v>
+      </c>
+      <c r="K66" t="s">
+        <v>543</v>
+      </c>
+      <c r="L66" t="s">
+        <v>544</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>545</v>
+      </c>
+      <c r="O66" t="s">
+        <v>70</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>546</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>547</v>
+      </c>
+      <c r="J67" t="s">
+        <v>548</v>
+      </c>
+      <c r="K67" t="s">
+        <v>549</v>
+      </c>
+      <c r="L67" t="s">
+        <v>550</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>551</v>
+      </c>
+      <c r="O67" t="s">
+        <v>135</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>552</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>553</v>
+      </c>
+      <c r="J68" t="s">
+        <v>554</v>
+      </c>
+      <c r="K68" t="s">
+        <v>555</v>
+      </c>
+      <c r="L68" t="s">
+        <v>556</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>551</v>
+      </c>
+      <c r="O68" t="s">
+        <v>70</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>557</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>558</v>
+      </c>
+      <c r="J69" t="s">
+        <v>559</v>
+      </c>
+      <c r="K69" t="s">
+        <v>560</v>
+      </c>
+      <c r="L69" t="s">
+        <v>561</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>562</v>
+      </c>
+      <c r="O69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>564</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>565</v>
+      </c>
+      <c r="J70" t="s">
+        <v>566</v>
+      </c>
+      <c r="K70" t="s">
+        <v>567</v>
+      </c>
+      <c r="L70" t="s">
+        <v>568</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>562</v>
+      </c>
+      <c r="O70" t="s">
+        <v>70</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>569</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>570</v>
+      </c>
+      <c r="J71" t="s">
+        <v>571</v>
+      </c>
+      <c r="K71" t="s">
+        <v>572</v>
+      </c>
+      <c r="L71" t="s">
+        <v>573</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>574</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>575</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>576</v>
+      </c>
+      <c r="J72" t="s">
+        <v>577</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>574</v>
+      </c>
+      <c r="O72" t="s">
+        <v>135</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>578</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>579</v>
+      </c>
+      <c r="J73" t="s">
+        <v>580</v>
+      </c>
+      <c r="K73" t="s">
+        <v>581</v>
+      </c>
+      <c r="L73" t="s">
+        <v>582</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>583</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>584</v>
+      </c>
+      <c r="J74" t="s">
+        <v>585</v>
+      </c>
+      <c r="K74" t="s">
+        <v>38</v>
+      </c>
+      <c r="L74" t="s">
+        <v>586</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>587</v>
+      </c>
+      <c r="O74" t="s">
+        <v>70</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>588</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>589</v>
+      </c>
+      <c r="J75" t="s">
+        <v>590</v>
+      </c>
+      <c r="K75" t="s">
+        <v>591</v>
+      </c>
+      <c r="L75" t="s">
+        <v>592</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>593</v>
+      </c>
+      <c r="O75" t="s">
+        <v>135</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>595</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>596</v>
+      </c>
+      <c r="J76" t="s">
+        <v>597</v>
+      </c>
+      <c r="K76" t="s">
+        <v>598</v>
+      </c>
+      <c r="L76" t="s">
+        <v>599</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>600</v>
+      </c>
+      <c r="O76" t="s">
+        <v>70</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>603</v>
+      </c>
+      <c r="J77" t="s">
+        <v>604</v>
+      </c>
+      <c r="K77" t="s">
+        <v>605</v>
+      </c>
+      <c r="L77" t="s">
+        <v>606</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>607</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>609</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>610</v>
+      </c>
+      <c r="J78" t="s">
+        <v>611</v>
+      </c>
+      <c r="K78" t="s">
+        <v>612</v>
+      </c>
+      <c r="L78" t="s">
+        <v>613</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>600</v>
+      </c>
+      <c r="O78" t="s">
+        <v>70</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>614</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>615</v>
+      </c>
+      <c r="J79" t="s">
+        <v>616</v>
+      </c>
+      <c r="K79" t="s">
+        <v>617</v>
+      </c>
+      <c r="L79" t="s">
+        <v>618</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>600</v>
+      </c>
+      <c r="O79" t="s">
+        <v>70</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>619</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>620</v>
+      </c>
+      <c r="J80" t="s">
+        <v>621</v>
+      </c>
+      <c r="K80" t="s">
+        <v>622</v>
+      </c>
+      <c r="L80" t="s">
+        <v>623</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>624</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>625</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>626</v>
+      </c>
+      <c r="J81" t="s">
+        <v>627</v>
+      </c>
+      <c r="K81" t="s">
+        <v>628</v>
+      </c>
+      <c r="L81" t="s">
+        <v>629</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>624</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>630</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>631</v>
+      </c>
+      <c r="J82" t="s">
+        <v>632</v>
+      </c>
+      <c r="K82" t="s">
+        <v>633</v>
+      </c>
+      <c r="L82" t="s">
+        <v>634</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>635</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>636</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>637</v>
+      </c>
+      <c r="J83" t="s">
+        <v>638</v>
+      </c>
+      <c r="K83" t="s">
+        <v>639</v>
+      </c>
+      <c r="L83" t="s">
+        <v>640</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>641</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>642</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>643</v>
+      </c>
+      <c r="J84" t="s">
+        <v>644</v>
+      </c>
+      <c r="K84" t="s">
+        <v>645</v>
+      </c>
+      <c r="L84" t="s">
+        <v>646</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>647</v>
+      </c>
+      <c r="O84" t="s">
+        <v>135</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>648</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>649</v>
+      </c>
+      <c r="J85" t="s">
+        <v>650</v>
+      </c>
+      <c r="K85" t="s">
+        <v>651</v>
+      </c>
+      <c r="L85" t="s">
+        <v>652</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>653</v>
+      </c>
+      <c r="O85" t="s">
+        <v>135</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>654</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>655</v>
+      </c>
+      <c r="J86" t="s">
+        <v>656</v>
+      </c>
+      <c r="K86" t="s">
+        <v>657</v>
+      </c>
+      <c r="L86" t="s">
+        <v>658</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>653</v>
+      </c>
+      <c r="O86" t="s">
+        <v>135</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>659</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>660</v>
+      </c>
+      <c r="J87" t="s">
+        <v>661</v>
+      </c>
+      <c r="K87" t="s">
+        <v>662</v>
+      </c>
+      <c r="L87" t="s">
+        <v>663</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>664</v>
+      </c>
+      <c r="O87" t="s">
+        <v>135</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>665</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>666</v>
+      </c>
+      <c r="J88" t="s">
+        <v>667</v>
+      </c>
+      <c r="K88" t="s">
+        <v>668</v>
+      </c>
+      <c r="L88" t="s">
+        <v>669</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>670</v>
+      </c>
+      <c r="O88" t="s">
+        <v>52</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>671</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>672</v>
+      </c>
+      <c r="J89" t="s">
+        <v>673</v>
+      </c>
+      <c r="K89" t="s">
+        <v>674</v>
+      </c>
+      <c r="L89" t="s">
+        <v>675</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>676</v>
+      </c>
+      <c r="O89" t="s">
+        <v>70</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>677</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>678</v>
+      </c>
+      <c r="J90" t="s">
+        <v>679</v>
+      </c>
+      <c r="K90" t="s">
+        <v>680</v>
+      </c>
+      <c r="L90" t="s">
+        <v>681</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>676</v>
+      </c>
+      <c r="O90" t="s">
+        <v>86</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>682</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>683</v>
+      </c>
+      <c r="J91" t="s">
+        <v>684</v>
+      </c>
+      <c r="K91" t="s">
+        <v>685</v>
+      </c>
+      <c r="L91" t="s">
+        <v>686</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>676</v>
+      </c>
+      <c r="O91" t="s">
+        <v>70</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>687</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>688</v>
+      </c>
+      <c r="J92" t="s">
+        <v>689</v>
+      </c>
+      <c r="K92" t="s">
+        <v>690</v>
+      </c>
+      <c r="L92" t="s">
+        <v>691</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>692</v>
+      </c>
+      <c r="O92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>693</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>694</v>
+      </c>
+      <c r="J93" t="s">
+        <v>695</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>696</v>
+      </c>
+      <c r="O93" t="s">
+        <v>70</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>697</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>698</v>
+      </c>
+      <c r="J94" t="s">
+        <v>699</v>
+      </c>
+      <c r="K94" t="s">
+        <v>700</v>
+      </c>
+      <c r="L94" t="s">
+        <v>701</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>702</v>
+      </c>
+      <c r="O94" t="s">
+        <v>169</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>703</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>704</v>
+      </c>
+      <c r="J95" t="s">
+        <v>705</v>
+      </c>
+      <c r="K95" t="s">
+        <v>706</v>
+      </c>
+      <c r="L95" t="s">
+        <v>707</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>702</v>
+      </c>
+      <c r="O95" t="s">
+        <v>70</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>709</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>710</v>
+      </c>
+      <c r="J96" t="s">
+        <v>711</v>
+      </c>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s">
+        <v>101</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>712</v>
+      </c>
+      <c r="O96" t="s">
+        <v>52</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>713</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>714</v>
+      </c>
+      <c r="J97" t="s">
+        <v>715</v>
+      </c>
+      <c r="K97" t="s"/>
+      <c r="L97" t="s"/>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>716</v>
+      </c>
+      <c r="O97" t="s">
+        <v>169</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>717</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>718</v>
+      </c>
+      <c r="J98" t="s">
+        <v>719</v>
+      </c>
+      <c r="K98" t="s">
+        <v>720</v>
+      </c>
+      <c r="L98" t="s">
+        <v>721</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>722</v>
+      </c>
+      <c r="O98" t="s">
+        <v>52</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>723</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>724</v>
+      </c>
+      <c r="J99" t="s">
+        <v>725</v>
+      </c>
+      <c r="K99" t="s">
+        <v>275</v>
+      </c>
+      <c r="L99" t="s">
+        <v>726</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>727</v>
+      </c>
+      <c r="O99" t="s">
+        <v>52</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>728</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>729</v>
+      </c>
+      <c r="J100" t="s">
+        <v>730</v>
+      </c>
+      <c r="K100" t="s">
+        <v>731</v>
+      </c>
+      <c r="L100" t="s">
+        <v>732</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>733</v>
+      </c>
+      <c r="O100" t="s">
+        <v>52</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>734</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>735</v>
+      </c>
+      <c r="J101" t="s">
+        <v>736</v>
+      </c>
+      <c r="K101" t="s">
+        <v>737</v>
+      </c>
+      <c r="L101" t="s">
+        <v>738</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>739</v>
+      </c>
+      <c r="O101" t="s">
+        <v>70</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>740</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>741</v>
+      </c>
+      <c r="J102" t="s">
+        <v>742</v>
+      </c>
+      <c r="K102" t="s">
+        <v>743</v>
+      </c>
+      <c r="L102" t="s">
+        <v>744</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>745</v>
+      </c>
+      <c r="O102" t="s">
+        <v>135</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>746</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>747</v>
+      </c>
+      <c r="J103" t="s">
+        <v>748</v>
+      </c>
+      <c r="K103" t="s">
+        <v>749</v>
+      </c>
+      <c r="L103" t="s">
+        <v>750</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="s">
+        <v>751</v>
+      </c>
+      <c r="O103" t="s">
+        <v>52</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>2</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>752</v>
+      </c>
+      <c r="X103" t="s">
+        <v>753</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s">
+        <v>755</v>
+      </c>
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>756</v>
+      </c>
+      <c r="J104" t="s">
+        <v>757</v>
+      </c>
+      <c r="K104" t="s">
+        <v>758</v>
+      </c>
+      <c r="L104" t="s">
+        <v>759</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>760</v>
+      </c>
+      <c r="O104" t="s">
+        <v>70</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>2</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>761</v>
+      </c>
+      <c r="X104" t="s">
+        <v>762</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>54842</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
+        <v>764</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>765</v>
+      </c>
+      <c r="J105" t="s">
+        <v>766</v>
+      </c>
+      <c r="K105" t="s">
+        <v>767</v>
+      </c>
+      <c r="L105" t="s">
+        <v>768</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>769</v>
+      </c>
+      <c r="O105" t="s">
+        <v>52</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>770</v>
+      </c>
+      <c r="X105" t="s">
+        <v>771</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>772</v>
       </c>
     </row>
   </sheetData>
